--- a/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
+++ b/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test_scenario" sheetId="1" r:id="rId1"/>
@@ -3307,11 +3307,6 @@
 6. Click on 'Checkout' button </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Click on Add to cart icon
-2. No add to cart product (With Empty cart).
-3. Click on 'Continue Shopping' button </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Click on 'Continue' button in the 'Success' page </t>
   </si>
   <si>
@@ -4172,6 +4167,11 @@
   </si>
   <si>
     <t>(Template)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on the Add to cart icon
+2. No add to cart product (With Empty cart).
+3. Click on 'Continue Shopping' button </t>
   </si>
 </sst>
 </file>
@@ -4914,6 +4914,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4986,21 +5001,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5008,35 +5008,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill>
@@ -5954,10 +5926,10 @@
     </row>
     <row r="2" spans="1:4" ht="18.75" thickBot="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="97" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" thickBot="1">
@@ -6335,10 +6307,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
       <c r="B3" s="49"/>
@@ -6423,10 +6395,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="115" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -6436,7 +6408,7 @@
         <v>289</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>290</v>
@@ -6452,8 +6424,8 @@
       <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -6461,7 +6433,7 @@
         <v>291</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>292</v>
@@ -6481,16 +6453,16 @@
       <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="225">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>116</v>
@@ -6510,16 +6482,16 @@
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>116</v>
@@ -6528,7 +6500,7 @@
         <v>84</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>744</v>
@@ -6539,16 +6511,16 @@
       <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>116</v>
@@ -6557,7 +6529,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>744</v>
@@ -6568,8 +6540,8 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="45">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -6577,7 +6549,7 @@
         <v>294</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F18" s="76" t="s">
         <v>284</v>
@@ -6597,8 +6569,8 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" ht="45">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -6606,7 +6578,7 @@
         <v>296</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>155</v>
@@ -6696,16 +6668,16 @@
     <mergeCell ref="B13:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I19">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6742,10 +6714,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
       <c r="B3" s="49"/>
@@ -6762,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
@@ -7490,16 +7462,16 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I33">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7536,10 +7508,10 @@
     <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
@@ -7632,10 +7604,10 @@
     </row>
     <row r="11" spans="1:11" ht="12.75"/>
     <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="111" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -7645,7 +7617,7 @@
         <v>312</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F12" s="76" t="s">
         <v>313</v>
@@ -7661,8 +7633,8 @@
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="135">
-      <c r="A13" s="109"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="37" t="s">
         <v>516</v>
       </c>
@@ -7670,13 +7642,13 @@
         <v>315</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>116</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H13" s="76" t="s">
         <v>316</v>
@@ -7690,16 +7662,16 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="109"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="37" t="s">
         <v>517</v>
       </c>
       <c r="D14" s="76" t="s">
+        <v>917</v>
+      </c>
+      <c r="E14" s="76" t="s">
         <v>918</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>919</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>263</v>
@@ -7719,8 +7691,8 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="90">
-      <c r="A15" s="109"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="37" t="s">
         <v>518</v>
       </c>
@@ -7728,7 +7700,7 @@
         <v>317</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>263</v>
@@ -7748,8 +7720,8 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="109"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="37" t="s">
         <v>519</v>
       </c>
@@ -7757,7 +7729,7 @@
         <v>319</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>284</v>
@@ -7777,8 +7749,8 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="110"/>
-      <c r="B17" s="106"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="37" t="s">
         <v>520</v>
       </c>
@@ -7786,7 +7758,7 @@
         <v>321</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>155</v>
@@ -7826,16 +7798,16 @@
     <mergeCell ref="A12:A17"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I17">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7872,10 +7844,10 @@
     <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
       <c r="B3" s="49"/>
@@ -7960,10 +7932,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="120">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="108" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -7973,7 +7945,7 @@
         <v>323</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>263</v>
@@ -7993,14 +7965,14 @@
       <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="210">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>921</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>922</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>263</v>
@@ -8009,7 +7981,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>744</v>
@@ -8020,14 +7992,14 @@
       <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="210">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>263</v>
@@ -8036,7 +8008,7 @@
         <v>84</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>875</v>
@@ -8047,14 +8019,14 @@
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>326</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>263</v>
@@ -8074,14 +8046,14 @@
       <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" ht="180">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>328</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>263</v>
@@ -8101,14 +8073,14 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="135">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>927</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>928</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>263</v>
@@ -8117,7 +8089,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>744</v>
@@ -8128,14 +8100,14 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" ht="135">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>263</v>
@@ -8144,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>744</v>
@@ -8155,14 +8127,14 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="105">
-      <c r="A20" s="99"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="37"/>
       <c r="D20" s="36" t="s">
         <v>330</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>284</v>
@@ -8182,14 +8154,14 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" ht="90">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="37"/>
       <c r="D21" s="36" t="s">
         <v>332</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>155</v>
@@ -8226,16 +8198,16 @@
     <mergeCell ref="B13:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I21">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8273,10 +8245,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -8368,20 +8340,20 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="B13" s="101" t="s">
+      <c r="A13" s="105" t="s">
+        <v>950</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>264</v>
@@ -8390,7 +8362,7 @@
         <v>84</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>744</v>
@@ -8401,16 +8373,16 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>264</v>
@@ -8419,7 +8391,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>744</v>
@@ -8430,16 +8402,16 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>264</v>
@@ -8448,7 +8420,7 @@
         <v>84</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>744</v>
@@ -8459,16 +8431,16 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>264</v>
@@ -8477,7 +8449,7 @@
         <v>84</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>744</v>
@@ -8488,16 +8460,16 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
       <c r="D17" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>945</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>946</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>264</v>
@@ -8506,7 +8478,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>875</v>
@@ -8517,8 +8489,8 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -8526,7 +8498,7 @@
         <v>423</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>264</v>
@@ -8546,8 +8518,8 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -8555,7 +8527,7 @@
         <v>425</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>422</v>
@@ -8575,8 +8547,8 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="75">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -8584,7 +8556,7 @@
         <v>427</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>422</v>
@@ -8610,30 +8582,30 @@
     <mergeCell ref="A13:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I16 I18:I20">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8671,10 +8643,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -8769,10 +8741,10 @@
       <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="102" customHeight="1">
-      <c r="A12" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="B12" s="98" t="s">
+      <c r="A12" s="105" t="s">
+        <v>950</v>
+      </c>
+      <c r="B12" s="105" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -8782,7 +8754,7 @@
         <v>429</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>116</v>
@@ -8802,16 +8774,16 @@
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="102" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="37" t="s">
         <v>516</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>116</v>
@@ -8820,7 +8792,7 @@
         <v>84</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>744</v>
@@ -8831,16 +8803,16 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="102" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="37" t="s">
         <v>517</v>
       </c>
       <c r="D14" s="76" t="s">
+        <v>968</v>
+      </c>
+      <c r="E14" s="76" t="s">
         <v>969</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>970</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>116</v>
@@ -8849,7 +8821,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>744</v>
@@ -8860,8 +8832,8 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -8889,8 +8861,8 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="360">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -8898,13 +8870,13 @@
         <v>433</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>430</v>
@@ -8914,8 +8886,8 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="150">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -8923,7 +8895,7 @@
         <v>434</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>116</v>
@@ -8932,7 +8904,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>744</v>
@@ -8943,8 +8915,8 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="105">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -8952,7 +8924,7 @@
         <v>435</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>116</v>
@@ -8961,7 +8933,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>744</v>
@@ -8972,8 +8944,8 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="165">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -8981,7 +8953,7 @@
         <v>436</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>356</v>
@@ -8990,7 +8962,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>744</v>
@@ -9001,8 +8973,8 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -9010,7 +8982,7 @@
         <v>437</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>356</v>
@@ -9019,7 +8991,7 @@
         <v>84</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>744</v>
@@ -9030,8 +9002,8 @@
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="37" t="s">
         <v>523</v>
       </c>
@@ -9039,7 +9011,7 @@
         <v>438</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>356</v>
@@ -9048,7 +9020,7 @@
         <v>793</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>744</v>
@@ -9059,8 +9031,8 @@
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="37" t="s">
         <v>524</v>
       </c>
@@ -9068,7 +9040,7 @@
         <v>439</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>264</v>
@@ -9088,8 +9060,8 @@
       <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" ht="75">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="37" t="s">
         <v>525</v>
       </c>
@@ -9097,7 +9069,7 @@
         <v>441</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>422</v>
@@ -9117,8 +9089,8 @@
       <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="75">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="37" t="s">
         <v>526</v>
       </c>
@@ -9126,7 +9098,7 @@
         <v>443</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>422</v>
@@ -9152,30 +9124,30 @@
     <mergeCell ref="A12:A24"/>
   </mergeCells>
   <conditionalFormatting sqref="I12 I15:I24">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9213,10 +9185,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -9235,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E4"/>
     </row>
@@ -9308,18 +9280,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="108" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="115" t="s">
+        <v>999</v>
+      </c>
+      <c r="B14" s="108" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="76" t="s">
+        <v>972</v>
+      </c>
+      <c r="E14" s="76" t="s">
         <v>973</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>974</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>263</v>
@@ -9339,14 +9311,14 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="109"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37"/>
       <c r="D15" s="76" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>336</v>
@@ -9355,7 +9327,7 @@
         <v>557</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>744</v>
@@ -9366,14 +9338,14 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="109"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37"/>
       <c r="D16" s="76" t="s">
         <v>337</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>263</v>
@@ -9393,23 +9365,23 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="120">
-      <c r="A17" s="109"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37"/>
       <c r="D17" s="76" t="s">
         <v>339</v>
       </c>
       <c r="E17" s="76" t="s">
+        <v>976</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>977</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>978</v>
       </c>
       <c r="G17" s="77" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>744</v>
@@ -9420,23 +9392,23 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="165">
-      <c r="A18" s="109"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37"/>
       <c r="D18" s="76" t="s">
+        <v>980</v>
+      </c>
+      <c r="E18" s="76" t="s">
         <v>981</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>982</v>
-      </c>
       <c r="F18" s="76" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G18" s="77" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>744</v>
@@ -9447,14 +9419,14 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="300">
-      <c r="A19" s="109"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37"/>
       <c r="D19" s="76" t="s">
         <v>340</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>263</v>
@@ -9463,7 +9435,7 @@
         <v>84</v>
       </c>
       <c r="H19" s="76" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>744</v>
@@ -9474,14 +9446,14 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="210">
-      <c r="A20" s="109"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="37"/>
       <c r="D20" s="76" t="s">
         <v>341</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F20" s="76" t="s">
         <v>342</v>
@@ -9490,7 +9462,7 @@
         <v>84</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>744</v>
@@ -9501,14 +9473,14 @@
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" ht="210">
-      <c r="A21" s="109"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="37"/>
       <c r="D21" s="76" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>262</v>
@@ -9517,7 +9489,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="76" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>744</v>
@@ -9528,14 +9500,14 @@
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="210">
-      <c r="A22" s="109"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="37"/>
       <c r="D22" s="76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F22" s="76" t="s">
         <v>262</v>
@@ -9544,7 +9516,7 @@
         <v>84</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>744</v>
@@ -9555,14 +9527,14 @@
       <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" ht="180">
-      <c r="A23" s="109"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="37"/>
       <c r="D23" s="76" t="s">
         <v>343</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F23" s="76" t="s">
         <v>262</v>
@@ -9582,14 +9554,14 @@
       <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="120">
-      <c r="A24" s="109"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="37"/>
       <c r="D24" s="76" t="s">
+        <v>996</v>
+      </c>
+      <c r="E24" s="76" t="s">
         <v>997</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>998</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>262</v>
@@ -9609,14 +9581,14 @@
       <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" ht="165">
-      <c r="A25" s="109"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="37"/>
       <c r="D25" s="76" t="s">
         <v>345</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F25" s="76" t="s">
         <v>262</v>
@@ -9636,14 +9608,14 @@
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" ht="409.5">
-      <c r="A26" s="109"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="37"/>
       <c r="D26" s="76" t="s">
         <v>347</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>262</v>
@@ -9659,14 +9631,14 @@
       <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" ht="409.5">
-      <c r="A27" s="109"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="37"/>
       <c r="D27" s="76" t="s">
         <v>349</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>262</v>
@@ -9682,14 +9654,14 @@
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:11" ht="90">
-      <c r="A28" s="109"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="37"/>
       <c r="D28" s="76" t="s">
         <v>351</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>263</v>
@@ -9709,14 +9681,14 @@
       <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11" ht="90">
-      <c r="A29" s="110"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="37"/>
       <c r="D29" s="76" t="s">
         <v>334</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F29" s="76" t="s">
         <v>263</v>
@@ -9742,44 +9714,44 @@
     <mergeCell ref="B14:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I25">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9817,10 +9789,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
       <c r="B3" s="49"/>
@@ -9904,15 +9876,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="51">
+    <row r="12" spans="1:11" ht="63.75">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>116</v>
@@ -9921,7 +9893,7 @@
         <v>84</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>744</v>
@@ -9939,7 +9911,7 @@
         <v>445</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>116</v>
@@ -9948,7 +9920,7 @@
         <v>84</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>744</v>
@@ -9963,10 +9935,10 @@
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>116</v>
@@ -9975,7 +9947,7 @@
         <v>84</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>744</v>
@@ -9990,10 +9962,10 @@
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
       <c r="D15" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>116</v>
@@ -10002,7 +9974,7 @@
         <v>84</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>744</v>
@@ -10017,10 +9989,10 @@
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
       <c r="D16" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>116</v>
@@ -10029,7 +10001,7 @@
         <v>84</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>744</v>
@@ -10044,10 +10016,10 @@
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>1080</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>1081</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>263</v>
@@ -10056,7 +10028,7 @@
         <v>84</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>744</v>
@@ -10071,10 +10043,10 @@
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
       <c r="D18" s="34" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>1087</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>1088</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>263</v>
@@ -10083,7 +10055,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>744</v>
@@ -10098,10 +10070,10 @@
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
       <c r="D19" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>264</v>
@@ -10125,10 +10097,10 @@
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
       <c r="D20" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>422</v>
@@ -10152,10 +10124,10 @@
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>422</v>
@@ -10179,16 +10151,16 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10226,10 +10198,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -10321,20 +10293,20 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="118" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>298</v>
@@ -10343,21 +10315,21 @@
         <v>84</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I12" s="36"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:11" ht="183.75" customHeight="1">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="81"/>
       <c r="D13" s="75" t="s">
         <v>299</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F13" s="75" t="s">
         <v>116</v>
@@ -10369,18 +10341,18 @@
         <v>300</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11" ht="258.75" customHeight="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="81"/>
       <c r="D14" s="75" t="s">
         <v>301</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F14" s="75" t="s">
         <v>263</v>
@@ -10392,18 +10364,18 @@
         <v>302</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11" ht="268.5" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="81"/>
       <c r="D15" s="75" t="s">
         <v>303</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F15" s="75" t="s">
         <v>263</v>
@@ -10415,18 +10387,18 @@
         <v>304</v>
       </c>
       <c r="I15" s="36"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="1:11" ht="165" customHeight="1">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="81"/>
       <c r="D16" s="75" t="s">
         <v>305</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F16" s="75" t="s">
         <v>263</v>
@@ -10435,21 +10407,21 @@
         <v>843</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I16" s="36"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="81"/>
       <c r="D17" s="75" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E17" s="75" t="s">
         <v>1097</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>1098</v>
       </c>
       <c r="F17" s="75" t="s">
         <v>263</v>
@@ -10458,21 +10430,21 @@
         <v>843</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I17" s="36"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
     </row>
     <row r="18" spans="1:11" ht="408.75" customHeight="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="81"/>
       <c r="D18" s="75" t="s">
         <v>307</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F18" s="75" t="s">
         <v>306</v>
@@ -10481,21 +10453,21 @@
         <v>843</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I18" s="36"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="135" customHeight="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="81"/>
       <c r="D19" s="75" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>1102</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>1103</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>306</v>
@@ -10504,21 +10476,21 @@
         <v>843</v>
       </c>
       <c r="H19" s="75" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I19" s="36"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="81"/>
       <c r="D20" s="75" t="s">
         <v>308</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F20" s="75" t="s">
         <v>284</v>
@@ -10530,18 +10502,18 @@
         <v>309</v>
       </c>
       <c r="I20" s="36"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="81"/>
       <c r="D21" s="75" t="s">
         <v>310</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F21" s="75" t="s">
         <v>155</v>
@@ -10553,8 +10525,8 @@
         <v>311</v>
       </c>
       <c r="I21" s="36"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10563,16 +10535,16 @@
     <mergeCell ref="B12:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I21">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10614,10 +10586,10 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="30" thickBot="1">
@@ -10629,8 +10601,8 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="120" t="s">
-        <v>1105</v>
+      <c r="F3" s="96" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -10712,10 +10684,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="108" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -10725,7 +10697,7 @@
         <v>354</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>263</v>
@@ -10741,14 +10713,14 @@
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="99"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="37"/>
       <c r="D13" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>1014</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>1015</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>263</v>
@@ -10763,15 +10735,15 @@
       <c r="J13" s="85"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="195">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
+    <row r="14" spans="1:11" ht="180">
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>357</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>263</v>
@@ -10787,14 +10759,14 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="60">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>359</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>263</v>
@@ -10810,14 +10782,14 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>360</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>263</v>
@@ -10833,14 +10805,14 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>362</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>262</v>
@@ -10856,14 +10828,14 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
         <v>364</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>262</v>
@@ -10879,14 +10851,14 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
         <v>366</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>263</v>
@@ -10902,14 +10874,14 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="75">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="37"/>
       <c r="D20" s="36" t="s">
         <v>368</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>263</v>
@@ -10931,16 +10903,16 @@
     <mergeCell ref="B12:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I20">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10956,7 +10928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -10977,10 +10949,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="97" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="98"/>
       <c r="D1" s="15"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -11146,10 +11118,10 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="90">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="99" t="s">
         <v>597</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -11178,8 +11150,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75">
-      <c r="A12" s="95"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="35" t="s">
         <v>516</v>
       </c>
@@ -11206,8 +11178,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="95"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="35" t="s">
         <v>517</v>
       </c>
@@ -11234,8 +11206,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90">
-      <c r="A14" s="95"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="35" t="s">
         <v>518</v>
       </c>
@@ -11262,8 +11234,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="95"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="35" t="s">
         <v>519</v>
       </c>
@@ -11290,8 +11262,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="75">
-      <c r="A16" s="95"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="35" t="s">
         <v>520</v>
       </c>
@@ -11318,8 +11290,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="35" t="s">
         <v>521</v>
       </c>
@@ -11346,8 +11318,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="35" t="s">
         <v>532</v>
       </c>
@@ -11374,8 +11346,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="35" t="s">
         <v>533</v>
       </c>
@@ -11402,8 +11374,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="180">
-      <c r="A20" s="95"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="35" t="s">
         <v>524</v>
       </c>
@@ -11430,8 +11402,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="180">
-      <c r="A21" s="95"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="35" t="s">
         <v>525</v>
       </c>
@@ -11458,8 +11430,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="180">
-      <c r="A22" s="95"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="35" t="s">
         <v>526</v>
       </c>
@@ -11486,8 +11458,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="180">
-      <c r="A23" s="95"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="35" t="s">
         <v>527</v>
       </c>
@@ -11514,8 +11486,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="165">
-      <c r="A24" s="95"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="35" t="s">
         <v>528</v>
       </c>
@@ -11542,8 +11514,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A25" s="95"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="35" t="s">
         <v>529</v>
       </c>
@@ -11570,8 +11542,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="165">
-      <c r="A26" s="95"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="35" t="s">
         <v>530</v>
       </c>
@@ -11598,8 +11570,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="165">
-      <c r="A27" s="95"/>
-      <c r="B27" s="93"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="35" t="s">
         <v>531</v>
       </c>
@@ -11626,8 +11598,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="165">
-      <c r="A28" s="95"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="35" t="s">
         <v>534</v>
       </c>
@@ -11654,8 +11626,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A29" s="95"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="35" t="s">
         <v>535</v>
       </c>
@@ -11682,8 +11654,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="165">
-      <c r="A30" s="95"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="35" t="s">
         <v>536</v>
       </c>
@@ -11710,8 +11682,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="165">
-      <c r="A31" s="95"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="35" t="s">
         <v>537</v>
       </c>
@@ -11738,8 +11710,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A32" s="95"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="35" t="s">
         <v>538</v>
       </c>
@@ -11766,8 +11738,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A33" s="95"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="35" t="s">
         <v>538</v>
       </c>
@@ -11794,8 +11766,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A34" s="95"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="35" t="s">
         <v>539</v>
       </c>
@@ -11822,8 +11794,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="165">
-      <c r="A35" s="95"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="35" t="s">
         <v>540</v>
       </c>
@@ -11850,8 +11822,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="165">
-      <c r="A36" s="95"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="35" t="s">
         <v>541</v>
       </c>
@@ -11878,8 +11850,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="165">
-      <c r="A37" s="95"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="35" t="s">
         <v>542</v>
       </c>
@@ -11906,8 +11878,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="165">
-      <c r="A38" s="95"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="35" t="s">
         <v>543</v>
       </c>
@@ -11934,8 +11906,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="165">
-      <c r="A39" s="95"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="35" t="s">
         <v>544</v>
       </c>
@@ -11962,8 +11934,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A40" s="95"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="35" t="s">
         <v>545</v>
       </c>
@@ -11990,8 +11962,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A41" s="95"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="35" t="s">
         <v>550</v>
       </c>
@@ -12018,8 +11990,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A42" s="95"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="35" t="s">
         <v>549</v>
       </c>
@@ -12046,8 +12018,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A43" s="95"/>
-      <c r="B43" s="93"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="35" t="s">
         <v>546</v>
       </c>
@@ -12072,8 +12044,8 @@
       <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A44" s="95"/>
-      <c r="B44" s="93"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="35" t="s">
         <v>547</v>
       </c>
@@ -12098,8 +12070,8 @@
       <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A45" s="95"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="35" t="s">
         <v>548</v>
       </c>
@@ -12126,8 +12098,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="135">
-      <c r="A46" s="95"/>
-      <c r="B46" s="93"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="35" t="s">
         <v>551</v>
       </c>
@@ -12154,8 +12126,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="90">
-      <c r="A47" s="95"/>
-      <c r="B47" s="93"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="35" t="s">
         <v>552</v>
       </c>
@@ -12182,8 +12154,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="105">
-      <c r="A48" s="95"/>
-      <c r="B48" s="93"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="35" t="s">
         <v>553</v>
       </c>
@@ -12210,8 +12182,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="150">
-      <c r="A49" s="95"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="35" t="s">
         <v>554</v>
       </c>
@@ -12238,8 +12210,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="150">
-      <c r="A50" s="95"/>
-      <c r="B50" s="93"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="35" t="s">
         <v>555</v>
       </c>
@@ -12307,10 +12279,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="1:11" ht="30" thickBot="1">
       <c r="B3" s="49"/>
@@ -12320,8 +12292,8 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="120" t="s">
-        <v>1105</v>
+      <c r="F3" s="96" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -12330,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
@@ -12398,10 +12370,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="178.5" customHeight="1">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="108" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -12411,7 +12383,7 @@
         <v>370</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>371</v>
@@ -12426,15 +12398,15 @@
       <c r="J12" s="85"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="1:11" ht="180">
-      <c r="A13" s="99"/>
-      <c r="B13" s="102"/>
+    <row r="13" spans="1:11" ht="165">
+      <c r="A13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="37"/>
       <c r="D13" s="36" t="s">
         <v>373</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>371</v>
@@ -12449,15 +12421,15 @@
       <c r="J13" s="85"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:11" ht="135">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
+    <row r="14" spans="1:11" ht="120">
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>375</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>371</v>
@@ -12473,14 +12445,14 @@
       <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="135">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>377</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>371</v>
@@ -12496,14 +12468,14 @@
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>379</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>371</v>
@@ -12519,14 +12491,14 @@
       <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" ht="114.75" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>381</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>262</v>
@@ -12542,14 +12514,14 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
         <v>383</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>263</v>
@@ -12565,14 +12537,14 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" ht="51" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
         <v>385</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>263</v>
@@ -12615,16 +12587,16 @@
     <mergeCell ref="B12:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I19">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12662,10 +12634,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="30" thickBot="1">
@@ -12677,8 +12649,8 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="120" t="s">
-        <v>1105</v>
+      <c r="F3" s="96" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -12767,11 +12739,11 @@
       <c r="C13" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="115" t="s">
-        <v>1042</v>
+      <c r="D13" s="91" t="s">
+        <v>1041</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>263</v>
@@ -12790,11 +12762,11 @@
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="115" t="s">
-        <v>1043</v>
+      <c r="D14" s="91" t="s">
+        <v>1042</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>263</v>
@@ -12813,11 +12785,11 @@
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="115" t="s">
-        <v>1044</v>
+      <c r="D15" s="91" t="s">
+        <v>1043</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>356</v>
@@ -12836,11 +12808,11 @@
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="115" t="s">
-        <v>1045</v>
+      <c r="D16" s="91" t="s">
+        <v>1044</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>411</v>
@@ -12859,11 +12831,11 @@
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="115" t="s">
-        <v>1046</v>
+      <c r="D17" s="91" t="s">
+        <v>1045</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>263</v>
@@ -12882,11 +12854,11 @@
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
-      <c r="D18" s="115" t="s">
-        <v>1047</v>
+      <c r="D18" s="91" t="s">
+        <v>1046</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F18" s="76" t="s">
         <v>413</v>
@@ -12905,11 +12877,11 @@
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="115" t="s">
-        <v>1048</v>
+      <c r="D19" s="91" t="s">
+        <v>1047</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F19" s="76" t="s">
         <v>413</v>
@@ -12928,11 +12900,11 @@
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="115" t="s">
-        <v>1049</v>
+      <c r="D20" s="91" t="s">
+        <v>1048</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F20" s="76" t="s">
         <v>262</v>
@@ -12951,11 +12923,11 @@
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="91" t="s">
         <v>403</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>262</v>
@@ -12974,11 +12946,11 @@
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="91" t="s">
         <v>405</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F22" s="76" t="s">
         <v>263</v>
@@ -12997,11 +12969,11 @@
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="91" t="s">
         <v>407</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F23" s="76" t="s">
         <v>263</v>
@@ -13020,11 +12992,11 @@
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="115" t="s">
-        <v>1050</v>
+      <c r="D24" s="91" t="s">
+        <v>1049</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>263</v>
@@ -13043,11 +13015,11 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="115" t="s">
-        <v>1051</v>
+      <c r="D25" s="91" t="s">
+        <v>1050</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F25" s="76" t="s">
         <v>263</v>
@@ -13066,11 +13038,11 @@
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="115" t="s">
-        <v>1052</v>
+      <c r="D26" s="91" t="s">
+        <v>1051</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>262</v>
@@ -13089,11 +13061,11 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="115" t="s">
-        <v>1053</v>
+      <c r="D27" s="91" t="s">
+        <v>1052</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F27" s="76" t="s">
         <v>262</v>
@@ -13112,11 +13084,11 @@
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="115" t="s">
-        <v>1054</v>
+      <c r="D28" s="91" t="s">
+        <v>1053</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>263</v>
@@ -13135,11 +13107,11 @@
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="115" t="s">
-        <v>1055</v>
+      <c r="D29" s="91" t="s">
+        <v>1054</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F29" s="76" t="s">
         <v>263</v>
@@ -13159,30 +13131,30 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I29">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J29">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13203,27 +13175,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="118" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="118" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="118" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="118" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="118" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="118" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="118" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="118" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="118" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="118" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="118" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="118"/>
+    <col min="1" max="1" width="23.140625" style="94" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="94" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="94" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="94" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="94" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="94" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="94" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="94" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="94" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="94" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="14"/>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="30" thickBot="1">
@@ -13235,8 +13207,8 @@
         <v>26</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="120" t="s">
-        <v>1105</v>
+      <c r="F3" s="96" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -13317,15 +13289,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="116" customFormat="1" ht="110.25" customHeight="1">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+    <row r="13" spans="1:11" s="92" customFormat="1" ht="110.25" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="34" t="s">
         <v>388</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>371</v>
@@ -13336,19 +13308,19 @@
       <c r="H13" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-    </row>
-    <row r="14" spans="1:11" s="116" customFormat="1" ht="229.5">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+    </row>
+    <row r="14" spans="1:11" s="92" customFormat="1" ht="216.75">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="34" t="s">
         <v>389</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>371</v>
@@ -13359,19 +13331,19 @@
       <c r="H14" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11" ht="151.5" customHeight="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="34" t="s">
         <v>391</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>371</v>
@@ -13382,19 +13354,19 @@
       <c r="H15" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-    </row>
-    <row r="16" spans="1:11" s="116" customFormat="1" ht="155.25" customHeight="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+    </row>
+    <row r="16" spans="1:11" s="92" customFormat="1" ht="155.25" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="34" t="s">
         <v>393</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>371</v>
@@ -13405,19 +13377,19 @@
       <c r="H16" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="1:11" ht="137.25" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="34" t="s">
         <v>395</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>371</v>
@@ -13428,19 +13400,19 @@
       <c r="H17" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-    </row>
-    <row r="18" spans="1:11" s="116" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+    </row>
+    <row r="18" spans="1:11" s="92" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="34" t="s">
         <v>397</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>371</v>
@@ -13451,19 +13423,19 @@
       <c r="H18" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="19" spans="1:11" ht="127.5">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="34" t="s">
         <v>400</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>371</v>
@@ -13474,19 +13446,19 @@
       <c r="H19" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-    </row>
-    <row r="20" spans="1:11" s="116" customFormat="1" ht="89.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+    </row>
+    <row r="20" spans="1:11" s="92" customFormat="1" ht="89.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="34" t="s">
         <v>402</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>371</v>
@@ -13497,19 +13469,19 @@
       <c r="H20" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-    </row>
-    <row r="21" spans="1:11" ht="76.5">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+    </row>
+    <row r="21" spans="1:11" ht="63.75">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="34" t="s">
         <v>403</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>262</v>
@@ -13520,19 +13492,19 @@
       <c r="H21" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-    </row>
-    <row r="22" spans="1:11" s="116" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+    </row>
+    <row r="22" spans="1:11" s="92" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="34" t="s">
         <v>405</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>263</v>
@@ -13543,19 +13515,19 @@
       <c r="H22" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
     </row>
     <row r="23" spans="1:11" ht="73.5" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="34" t="s">
         <v>407</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>263</v>
@@ -13566,9 +13538,9 @@
       <c r="H23" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13607,10 +13579,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" thickBot="1">
       <c r="A1" s="48"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="97"/>
+      <c r="C1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
       <c r="A2" s="49"/>
@@ -13698,14 +13670,14 @@
         <v>25</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="180">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="105" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -13735,8 +13707,8 @@
       <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="180">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="37" t="s">
         <v>516</v>
       </c>
@@ -13764,8 +13736,8 @@
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:12" ht="180">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="37" t="s">
         <v>517</v>
       </c>
@@ -13793,8 +13765,8 @@
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:12" ht="180">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="37" t="s">
         <v>518</v>
       </c>
@@ -13822,8 +13794,8 @@
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:12" ht="135">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="37" t="s">
         <v>519</v>
       </c>
@@ -13851,8 +13823,8 @@
       <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="120">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="37" t="s">
         <v>520</v>
       </c>
@@ -13880,8 +13852,8 @@
       <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="285">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="37" t="s">
         <v>521</v>
       </c>
@@ -13909,8 +13881,8 @@
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="75">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="37" t="s">
         <v>522</v>
       </c>
@@ -13938,16 +13910,16 @@
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="270">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
       <c r="D19" s="66" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="66" t="s">
         <v>1001</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>1002</v>
       </c>
       <c r="F19" s="66" t="s">
         <v>685</v>
@@ -13956,7 +13928,7 @@
         <v>557</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I19" s="37" t="s">
         <v>563</v>
@@ -13964,13 +13936,13 @@
       <c r="J19" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="K19" s="114" t="s">
-        <v>1005</v>
+      <c r="K19" s="90" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="32" customFormat="1" ht="180">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="37" t="s">
         <v>524</v>
       </c>
@@ -13998,8 +13970,8 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" s="32" customFormat="1" ht="210">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="37" t="s">
         <v>525</v>
       </c>
@@ -14027,8 +13999,8 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="210">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="37" t="s">
         <v>526</v>
       </c>
@@ -14052,8 +14024,8 @@
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" s="32" customFormat="1" ht="210">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="37" t="s">
         <v>527</v>
       </c>
@@ -14081,8 +14053,8 @@
       <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" ht="135">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="37" t="s">
         <v>528</v>
       </c>
@@ -14110,8 +14082,8 @@
       <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" ht="195">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="37" t="s">
         <v>529</v>
       </c>
@@ -14139,8 +14111,8 @@
       <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" ht="165">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="37" t="s">
         <v>530</v>
       </c>
@@ -14168,8 +14140,8 @@
       <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" ht="210">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="37" t="s">
         <v>531</v>
       </c>
@@ -14197,8 +14169,8 @@
       <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="180">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="37" t="s">
         <v>532</v>
       </c>
@@ -14222,8 +14194,8 @@
       <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" ht="210">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="37" t="s">
         <v>533</v>
       </c>
@@ -14251,8 +14223,8 @@
       <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" ht="75">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="37" t="s">
         <v>534</v>
       </c>
@@ -14280,8 +14252,8 @@
       <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" ht="75">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="37" t="s">
         <v>535</v>
       </c>
@@ -14309,8 +14281,8 @@
       <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" ht="60">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="37" t="s">
         <v>536</v>
       </c>
@@ -14344,16 +14316,16 @@
     <mergeCell ref="A11:A32"/>
   </mergeCells>
   <conditionalFormatting sqref="J22 J28">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14397,10 +14369,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="B1" s="48"/>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="97"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="49"/>
@@ -14486,10 +14458,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="133.5" customHeight="1">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="108" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="37" t="s">
@@ -14519,8 +14491,8 @@
       <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="60">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37" t="s">
         <v>516</v>
       </c>
@@ -14548,8 +14520,8 @@
       <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" ht="45">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37" t="s">
         <v>517</v>
       </c>
@@ -14577,8 +14549,8 @@
       <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37" t="s">
         <v>518</v>
       </c>
@@ -14606,8 +14578,8 @@
       <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" ht="120">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37" t="s">
         <v>519</v>
       </c>
@@ -14635,8 +14607,8 @@
       <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" ht="80.25" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37" t="s">
         <v>520</v>
       </c>
@@ -14664,8 +14636,8 @@
       <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="60">
-      <c r="A20" s="99"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="37" t="s">
         <v>521</v>
       </c>
@@ -14693,8 +14665,8 @@
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" ht="60">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="37" t="s">
         <v>522</v>
       </c>
@@ -14728,16 +14700,16 @@
     <mergeCell ref="B14:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I21">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14777,10 +14749,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -14872,10 +14844,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="330">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="111" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -14905,8 +14877,8 @@
       <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="330">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="36" t="s">
         <v>516</v>
       </c>
@@ -14934,8 +14906,8 @@
       <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="135">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="36" t="s">
         <v>517</v>
       </c>
@@ -14963,8 +14935,8 @@
       <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="120">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="36" t="s">
         <v>518</v>
       </c>
@@ -14992,8 +14964,8 @@
       <c r="K15" s="61"/>
     </row>
     <row r="16" spans="1:11" ht="165">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="36" t="s">
         <v>519</v>
       </c>
@@ -15021,8 +14993,8 @@
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="36" t="s">
         <v>520</v>
       </c>
@@ -15050,8 +15022,8 @@
       <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:11" ht="255">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="36" t="s">
         <v>521</v>
       </c>
@@ -15079,8 +15051,8 @@
       <c r="K18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="255">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="36" t="s">
         <v>522</v>
       </c>
@@ -15108,8 +15080,8 @@
       <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="120">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="36" t="s">
         <v>523</v>
       </c>
@@ -15137,8 +15109,8 @@
       <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="120">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="36" t="s">
         <v>524</v>
       </c>
@@ -15166,8 +15138,8 @@
       <c r="K21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="120">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="36" t="s">
         <v>525</v>
       </c>
@@ -15195,8 +15167,8 @@
       <c r="K22" s="61"/>
     </row>
     <row r="23" spans="1:11" ht="120">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="36" t="s">
         <v>526</v>
       </c>
@@ -15224,8 +15196,8 @@
       <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="120">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="36" t="s">
         <v>527</v>
       </c>
@@ -15253,8 +15225,8 @@
       <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11" ht="75">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="36" t="s">
         <v>528</v>
       </c>
@@ -15282,8 +15254,8 @@
       <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="36" t="s">
         <v>529</v>
       </c>
@@ -15311,8 +15283,8 @@
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="36" t="s">
         <v>530</v>
       </c>
@@ -15340,8 +15312,8 @@
       <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="60">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="36" t="s">
         <v>531</v>
       </c>
@@ -15369,8 +15341,8 @@
       <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="120">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="36" t="s">
         <v>532</v>
       </c>
@@ -15398,8 +15370,8 @@
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" ht="45">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="36" t="s">
         <v>533</v>
       </c>
@@ -15427,8 +15399,8 @@
       <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" ht="90">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="36" t="s">
         <v>534</v>
       </c>
@@ -15456,8 +15428,8 @@
       <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:11" ht="45">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="36" t="s">
         <v>535</v>
       </c>
@@ -15485,8 +15457,8 @@
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" ht="135">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="36" t="s">
         <v>536</v>
       </c>
@@ -15514,8 +15486,8 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" ht="60">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="36" t="s">
         <v>537</v>
       </c>
@@ -15582,10 +15554,10 @@
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -15677,10 +15649,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="108" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -15710,8 +15682,8 @@
       <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="90">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="36" t="s">
         <v>516</v>
       </c>
@@ -15739,8 +15711,8 @@
       <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="36" t="s">
         <v>517</v>
       </c>
@@ -15770,8 +15742,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="36" t="s">
         <v>518</v>
       </c>
@@ -15799,8 +15771,8 @@
       <c r="K16" s="61"/>
     </row>
     <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="36" t="s">
         <v>519</v>
       </c>
@@ -15828,8 +15800,8 @@
       <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="36" t="s">
         <v>520</v>
       </c>
@@ -15857,8 +15829,8 @@
       <c r="K18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="60">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="36" t="s">
         <v>521</v>
       </c>
@@ -15886,8 +15858,8 @@
       <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="36" t="s">
         <v>522</v>
       </c>
@@ -15915,8 +15887,8 @@
       <c r="K20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="36" t="s">
         <v>523</v>
       </c>
@@ -15944,8 +15916,8 @@
       <c r="K21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="36" t="s">
         <v>524</v>
       </c>
@@ -15973,8 +15945,8 @@
       <c r="K22" s="61"/>
     </row>
     <row r="23" spans="1:11" ht="135">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="36" t="s">
         <v>525</v>
       </c>
@@ -16002,8 +15974,8 @@
       <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:11" ht="180">
-      <c r="A24" s="102"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="36" t="s">
         <v>526</v>
       </c>
@@ -16031,8 +16003,8 @@
       <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11" ht="210">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="36" t="s">
         <v>527</v>
       </c>
@@ -16060,8 +16032,8 @@
       <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11" ht="180">
-      <c r="A26" s="102"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="36" t="s">
         <v>528</v>
       </c>
@@ -16089,8 +16061,8 @@
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="180">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="36" t="s">
         <v>529</v>
       </c>
@@ -16118,8 +16090,8 @@
       <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="180">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="36" t="s">
         <v>530</v>
       </c>
@@ -16147,8 +16119,8 @@
       <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="90">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="36" t="s">
         <v>531</v>
       </c>
@@ -16176,8 +16148,8 @@
       <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:11" ht="90">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="36" t="s">
         <v>532</v>
       </c>
@@ -16205,8 +16177,8 @@
       <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:11" ht="330">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="36" t="s">
         <v>533</v>
       </c>
@@ -16234,8 +16206,8 @@
       <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:11" ht="409.5">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="36" t="s">
         <v>534</v>
       </c>
@@ -16263,8 +16235,8 @@
       <c r="K32" s="61"/>
     </row>
     <row r="33" spans="1:11" ht="135">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="36" t="s">
         <v>535</v>
       </c>
@@ -16292,8 +16264,8 @@
       <c r="K33" s="61"/>
     </row>
     <row r="34" spans="1:11" ht="120">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="36" t="s">
         <v>536</v>
       </c>
@@ -16321,8 +16293,8 @@
       <c r="K34" s="61"/>
     </row>
     <row r="35" spans="1:11" ht="60">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="36" t="s">
         <v>537</v>
       </c>
@@ -16350,8 +16322,8 @@
       <c r="K35" s="61"/>
     </row>
     <row r="36" spans="1:11" ht="90">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="36" t="s">
         <v>538</v>
       </c>
@@ -16379,8 +16351,8 @@
       <c r="K36" s="61"/>
     </row>
     <row r="37" spans="1:11" ht="150">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="36" t="s">
         <v>539</v>
       </c>
@@ -16408,8 +16380,8 @@
       <c r="K37" s="61"/>
     </row>
     <row r="38" spans="1:11" ht="90">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="36" t="s">
         <v>540</v>
       </c>
@@ -16437,8 +16409,8 @@
       <c r="K38" s="61"/>
     </row>
     <row r="39" spans="1:11" ht="90">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="36" t="s">
         <v>541</v>
       </c>
@@ -16505,10 +16477,10 @@
     <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1">
@@ -16600,10 +16572,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="274.5" customHeight="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="108" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -16633,8 +16605,8 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="105">
-      <c r="A14" s="99"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -16662,8 +16634,8 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="79.5" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -16691,8 +16663,8 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="75">
-      <c r="A16" s="99"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -16720,8 +16692,8 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="165">
-      <c r="A17" s="99"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -16749,8 +16721,8 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="99"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -16778,8 +16750,8 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" ht="180">
-      <c r="A19" s="99"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -16807,8 +16779,8 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" ht="120">
-      <c r="A20" s="99"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -16836,8 +16808,8 @@
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="99"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="37" t="s">
         <v>523</v>
       </c>
@@ -16865,8 +16837,8 @@
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="99"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="37" t="s">
         <v>524</v>
       </c>
@@ -16894,8 +16866,8 @@
       <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" ht="105">
-      <c r="A23" s="99"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="37" t="s">
         <v>525</v>
       </c>
@@ -16923,8 +16895,8 @@
       <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" ht="105">
-      <c r="A24" s="99"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="37" t="s">
         <v>526</v>
       </c>
@@ -16952,8 +16924,8 @@
       <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" ht="105">
-      <c r="A25" s="99"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="37" t="s">
         <v>527</v>
       </c>
@@ -16981,8 +16953,8 @@
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" ht="135">
-      <c r="A26" s="99"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="37" t="s">
         <v>528</v>
       </c>
@@ -17010,8 +16982,8 @@
       <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" ht="195">
-      <c r="A27" s="99"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="37" t="s">
         <v>529</v>
       </c>
@@ -17039,8 +17011,8 @@
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:11" ht="135">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="37" t="s">
         <v>530</v>
       </c>
@@ -17068,8 +17040,8 @@
       <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11" ht="105">
-      <c r="A29" s="99"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="37" t="s">
         <v>531</v>
       </c>
@@ -17097,8 +17069,8 @@
       <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" ht="60">
-      <c r="A30" s="99"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="37" t="s">
         <v>532</v>
       </c>
@@ -17126,8 +17098,8 @@
       <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11" ht="60">
-      <c r="A31" s="99"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="37" t="s">
         <v>533</v>
       </c>
@@ -17155,8 +17127,8 @@
       <c r="K31" s="63"/>
     </row>
     <row r="32" spans="1:11" ht="120">
-      <c r="A32" s="99"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="37" t="s">
         <v>534</v>
       </c>
@@ -17184,8 +17156,8 @@
       <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" ht="150">
-      <c r="A33" s="99"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="37" t="s">
         <v>535</v>
       </c>
@@ -17213,8 +17185,8 @@
       <c r="K33" s="63"/>
     </row>
     <row r="34" spans="1:11" ht="150">
-      <c r="A34" s="99"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="37" t="s">
         <v>536</v>
       </c>
@@ -17242,8 +17214,8 @@
       <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" ht="195" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="37" t="s">
         <v>537</v>
       </c>
@@ -17271,8 +17243,8 @@
       <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" ht="195" customHeight="1">
-      <c r="A36" s="99"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="37" t="s">
         <v>538</v>
       </c>
@@ -17300,8 +17272,8 @@
       <c r="K36" s="63"/>
     </row>
     <row r="37" spans="1:11" ht="195" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="37" t="s">
         <v>539</v>
       </c>
@@ -17329,8 +17301,8 @@
       <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" ht="105">
-      <c r="A38" s="99"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="37" t="s">
         <v>540</v>
       </c>
@@ -17358,8 +17330,8 @@
       <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" ht="120">
-      <c r="A39" s="99"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="106"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="37" t="s">
         <v>541</v>
       </c>
@@ -17387,8 +17359,8 @@
       <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" ht="105">
-      <c r="A40" s="99"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="37" t="s">
         <v>542</v>
       </c>
@@ -17416,8 +17388,8 @@
       <c r="K40" s="63"/>
     </row>
     <row r="41" spans="1:11" ht="120">
-      <c r="A41" s="99"/>
-      <c r="B41" s="102"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="37" t="s">
         <v>543</v>
       </c>
@@ -17445,8 +17417,8 @@
       <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" ht="75">
-      <c r="A42" s="99"/>
-      <c r="B42" s="102"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="37" t="s">
         <v>544</v>
       </c>
@@ -17474,8 +17446,8 @@
       <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" ht="75">
-      <c r="A43" s="100"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="37" t="s">
         <v>545</v>
       </c>
@@ -17509,16 +17481,16 @@
     <mergeCell ref="B13:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I47">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17556,10 +17528,10 @@
     <row r="1" spans="1:11" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
@@ -17652,10 +17624,10 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="13" spans="1:11" ht="210">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="105" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -17685,8 +17657,8 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" ht="270">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -17714,8 +17686,8 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" ht="255">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -17743,8 +17715,8 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" ht="105">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -17772,8 +17744,8 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -17801,8 +17773,8 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -17931,16 +17903,16 @@
     <mergeCell ref="B13:B18"/>
   </mergeCells>
   <conditionalFormatting sqref="I13:I18">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17956,8 +17928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17992,10 +17964,10 @@
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
       <c r="A2" s="33"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="103" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="97"/>
+      <c r="D2" s="104"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -18163,10 +18135,10 @@
       <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="208.5" customHeight="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="114" t="s">
         <v>881</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -18197,8 +18169,8 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="182.25" customHeight="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="81" t="s">
         <v>516</v>
       </c>
@@ -18227,8 +18199,8 @@
       <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="93.75" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="81" t="s">
         <v>517</v>
       </c>
@@ -18257,8 +18229,8 @@
       <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="216.75">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="81" t="s">
         <v>518</v>
       </c>
@@ -18287,8 +18259,8 @@
       <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="216.75">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="81" t="s">
         <v>519</v>
       </c>
@@ -18317,8 +18289,8 @@
       <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="229.5">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="81" t="s">
         <v>520</v>
       </c>
@@ -18347,8 +18319,8 @@
       <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="178.5">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="81" t="s">
         <v>521</v>
       </c>
@@ -18377,8 +18349,8 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="204">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="81" t="s">
         <v>522</v>
       </c>
@@ -18407,10 +18379,10 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="214.5" customHeight="1">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="114" t="s">
         <v>881</v>
       </c>
       <c r="C20" s="81" t="s">
@@ -18441,8 +18413,8 @@
       <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="228" customHeight="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="81" t="s">
         <v>524</v>
       </c>
@@ -18450,7 +18422,7 @@
         <v>281</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>896</v>
+        <v>1105</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>155</v>
@@ -18470,8 +18442,8 @@
       <c r="K21" s="60"/>
     </row>
     <row r="22" spans="1:12" ht="63.75">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="81" t="s">
         <v>525</v>
       </c>
@@ -18499,8 +18471,8 @@
       <c r="K22" s="60"/>
     </row>
     <row r="23" spans="1:12" ht="63.75">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="81" t="s">
         <v>526</v>
       </c>
@@ -18536,16 +18508,16 @@
     <mergeCell ref="A20:A23"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:I23">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",I12)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
+++ b/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEAL\OneDrive\Pictures\SQA\Projects\All Projects\3rd Manual Project -gtomega.co.uk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEAL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7620" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test_scenario" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1108">
   <si>
     <t>Project Name</t>
   </si>
@@ -4173,12 +4173,18 @@
 2. No add to cart product (With Empty cart).
 3. Click on 'Continue Shopping' button </t>
   </si>
+  <si>
+    <t xml:space="preserve">Color indicates: </t>
+  </si>
+  <si>
+    <t>Cannot execute because of don’t have access</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4295,6 +4301,19 @@
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4687,7 +4706,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5001,6 +5020,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5908,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6286,7 +6307,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6312,13 +6333,20 @@
       </c>
       <c r="D2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -6693,7 +6721,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6719,13 +6747,20 @@
       </c>
       <c r="D2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -7487,7 +7522,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7523,6 +7558,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
       <c r="B4" s="49"/>
@@ -7823,7 +7865,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7849,13 +7891,20 @@
       </c>
       <c r="D2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
@@ -8223,7 +8272,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8251,7 +8300,7 @@
       <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -8260,6 +8309,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -8622,7 +8678,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8649,7 +8705,7 @@
       <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -8658,6 +8714,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -9163,7 +9226,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9191,7 +9254,7 @@
       <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -9200,6 +9263,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -9766,8 +9836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9794,13 +9864,20 @@
       </c>
       <c r="D2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="78" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
@@ -10175,8 +10252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10204,7 +10281,7 @@
       <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -10213,6 +10290,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -10560,7 +10644,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10605,7 +10689,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -10614,6 +10698,13 @@
         <v>754</v>
       </c>
       <c r="E4"/>
+      <c r="F4" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
       <c r="B5" s="49"/>
@@ -10928,8 +11019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" activeCellId="2" sqref="E2 F2 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10962,7 +11053,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="21" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -10971,9 +11062,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F2" s="122"/>
+      <c r="G2" s="14" t="s">
+        <v>1107</v>
+      </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -12258,7 +12353,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12296,13 +12391,20 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>1015</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
@@ -12612,7 +12714,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12653,7 +12755,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -12662,6 +12764,13 @@
         <v>755</v>
       </c>
       <c r="E4"/>
+      <c r="F4" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
       <c r="B5" s="49"/>
@@ -13170,7 +13279,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13211,7 +13320,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1">
       <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -13220,6 +13329,13 @@
         <v>682</v>
       </c>
       <c r="E4" s="11"/>
+      <c r="F4" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
       <c r="B5" s="16"/>
@@ -13558,7 +13674,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13584,13 +13700,20 @@
       </c>
       <c r="C1" s="104"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+    <row r="2" spans="1:12" ht="21" thickBot="1">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F2" s="122"/>
+      <c r="G2" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" thickBot="1">
@@ -14349,7 +14472,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14374,13 +14497,20 @@
       </c>
       <c r="D1" s="104"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="21" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G2" s="122"/>
+      <c r="H2" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" thickBot="1">
@@ -14727,7 +14857,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14755,7 +14885,7 @@
       <c r="D2" s="104"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -14764,6 +14894,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="32"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -15531,8 +15668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15560,7 +15697,7 @@
       <c r="D2" s="104"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -15569,6 +15706,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -16454,8 +16598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16492,6 +16636,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" thickBot="1">
       <c r="B4" s="49"/>
@@ -17507,7 +17658,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" customHeight="1"/>
@@ -17543,6 +17694,13 @@
         <v>26</v>
       </c>
       <c r="E3"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1">
       <c r="B4" s="49"/>
@@ -17928,8 +18086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17976,7 +18134,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" thickBot="1">
+    <row r="3" spans="1:12" ht="21" thickBot="1">
       <c r="A3" s="33"/>
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
@@ -17985,9 +18143,13 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="121" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
+      </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>

--- a/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
+++ b/Test Scenario + Case/Test scenario + case for gtomega.co.uk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test_scenario" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1109">
   <si>
     <t>Project Name</t>
   </si>
@@ -4179,12 +4179,15 @@
   <si>
     <t>Cannot execute because of don’t have access</t>
   </si>
+  <si>
+    <t>Tester Comment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4948,6 +4951,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5020,8 +5025,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5933,27 +5936,27 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" thickBot="1">
+    <row r="2" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="99" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" thickBot="1">
+    <row r="3" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -5965,7 +5968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" thickBot="1">
+    <row r="4" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -5973,7 +5976,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" thickBot="1">
+    <row r="5" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -5981,7 +5984,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" thickBot="1">
+    <row r="6" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -5989,7 +5992,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" thickBot="1">
+    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -5997,7 +6000,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" thickBot="1">
+    <row r="8" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -6005,13 +6008,13 @@
       <c r="C8" s="6"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="18">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>6</v>
@@ -6021,7 +6024,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>8</v>
@@ -6031,7 +6034,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -6041,7 +6044,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
         <v>10</v>
@@ -6051,7 +6054,7 @@
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -6061,7 +6064,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -6071,7 +6074,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" s="45" customFormat="1">
+    <row r="16" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="73" t="s">
         <v>13</v>
@@ -6081,7 +6084,7 @@
       </c>
       <c r="D16" s="72"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="10" t="s">
         <v>13</v>
@@ -6091,7 +6094,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="10" t="s">
         <v>14</v>
@@ -6101,7 +6104,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -6111,7 +6114,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="10" t="s">
         <v>57</v>
@@ -6121,7 +6124,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
@@ -6131,7 +6134,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>59</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>61</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>63</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>64</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
@@ -6219,7 +6222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>70</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>71</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>72</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>73</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>74</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
@@ -6267,7 +6270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>76</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>77</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>78</v>
       </c>
@@ -6310,7 +6313,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
@@ -6325,15 +6328,15 @@
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6341,15 +6344,15 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -6358,36 +6361,36 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" s="31" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
@@ -6422,11 +6425,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="115" t="s">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="117" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -6451,9 +6454,9 @@
       <c r="J13" s="47"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -6480,9 +6483,9 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="225">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
+    <row r="15" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="118"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -6509,9 +6512,9 @@
       </c>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -6538,9 +6541,9 @@
       </c>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="118"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -6567,9 +6570,9 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="45">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -6596,9 +6599,9 @@
       </c>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="1:11" ht="45">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -6625,68 +6628,68 @@
       </c>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G30" s="33"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G31" s="33"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G32" s="33"/>
     </row>
   </sheetData>
@@ -6724,7 +6727,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
@@ -6739,15 +6742,15 @@
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -6755,15 +6758,15 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -6772,36 +6775,36 @@
         <v>965</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90">
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="36" t="s">
         <v>55</v>
@@ -6867,7 +6870,7 @@
       </c>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="1:11" ht="60">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6894,7 +6897,7 @@
       </c>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:11" ht="105">
+    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -6921,7 +6924,7 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="150">
+    <row r="15" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6948,7 +6951,7 @@
       </c>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="75">
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -6975,7 +6978,7 @@
       </c>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" ht="90">
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -7002,7 +7005,7 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="90">
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -7029,7 +7032,7 @@
       </c>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="1:11" ht="90">
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -7056,7 +7059,7 @@
       </c>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="1:11" ht="165">
+    <row r="20" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -7083,7 +7086,7 @@
       </c>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="1:11" ht="135">
+    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -7110,7 +7113,7 @@
       </c>
       <c r="K21" s="60"/>
     </row>
-    <row r="22" spans="1:11" ht="135">
+    <row r="22" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -7137,7 +7140,7 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="1:11" ht="135">
+    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -7164,7 +7167,7 @@
       </c>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="1:11" ht="135">
+    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -7191,7 +7194,7 @@
       </c>
       <c r="K24" s="60"/>
     </row>
-    <row r="25" spans="1:11" ht="135">
+    <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -7218,7 +7221,7 @@
       </c>
       <c r="K25" s="60"/>
     </row>
-    <row r="26" spans="1:11" ht="165">
+    <row r="26" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -7245,7 +7248,7 @@
       </c>
       <c r="K26" s="60"/>
     </row>
-    <row r="27" spans="1:11" ht="165">
+    <row r="27" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -7272,7 +7275,7 @@
       </c>
       <c r="K27" s="60"/>
     </row>
-    <row r="28" spans="1:11" ht="165">
+    <row r="28" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -7299,7 +7302,7 @@
       </c>
       <c r="K28" s="60"/>
     </row>
-    <row r="29" spans="1:11" ht="165">
+    <row r="29" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7326,7 +7329,7 @@
       </c>
       <c r="K29" s="60"/>
     </row>
-    <row r="30" spans="1:11" ht="60">
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -7353,7 +7356,7 @@
       </c>
       <c r="K30" s="60"/>
     </row>
-    <row r="31" spans="1:11" ht="75">
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -7380,7 +7383,7 @@
       </c>
       <c r="K31" s="60"/>
     </row>
-    <row r="32" spans="1:11" ht="60">
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -7407,7 +7410,7 @@
       </c>
       <c r="K32" s="60"/>
     </row>
-    <row r="33" spans="1:11" ht="75">
+    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -7434,62 +7437,62 @@
       </c>
       <c r="K33" s="60"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="33"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="33"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E45" s="33"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E46" s="33"/>
     </row>
   </sheetData>
@@ -7525,7 +7528,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="33" customWidth="1"/>
@@ -7540,16 +7543,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -7558,15 +7561,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -7576,7 +7579,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -7584,7 +7587,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -7592,7 +7595,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -7600,7 +7603,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -7608,8 +7611,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -7644,12 +7647,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75"/>
-    <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="115" t="s">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="113" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -7674,9 +7677,9 @@
       <c r="J12" s="85"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="1:11" ht="135">
-      <c r="A13" s="116"/>
-      <c r="B13" s="112"/>
+    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="A13" s="118"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="37" t="s">
         <v>516</v>
       </c>
@@ -7703,9 +7706,9 @@
       </c>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="45">
-      <c r="A14" s="116"/>
-      <c r="B14" s="112"/>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="118"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="37" t="s">
         <v>517</v>
       </c>
@@ -7732,9 +7735,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="90">
-      <c r="A15" s="116"/>
-      <c r="B15" s="112"/>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="37" t="s">
         <v>518</v>
       </c>
@@ -7761,9 +7764,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="116"/>
-      <c r="B16" s="112"/>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="118"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="37" t="s">
         <v>519</v>
       </c>
@@ -7790,9 +7793,9 @@
       </c>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="117"/>
-      <c r="B17" s="113"/>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A17" s="119"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="37" t="s">
         <v>520</v>
       </c>
@@ -7819,20 +7822,20 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75"/>
-    <row r="19" spans="1:11" ht="12.75"/>
-    <row r="20" spans="1:11" ht="12.75"/>
-    <row r="21" spans="1:11" ht="12.75"/>
-    <row r="22" spans="1:11" ht="12.75"/>
-    <row r="23" spans="1:11" ht="12.75"/>
-    <row r="24" spans="1:11" ht="12.75"/>
-    <row r="25" spans="1:11" ht="12.75"/>
-    <row r="26" spans="1:11" ht="12.75"/>
-    <row r="27" spans="1:11" ht="12.75"/>
-    <row r="28" spans="1:11" ht="12.75"/>
-    <row r="29" spans="1:11" ht="12.75"/>
-    <row r="30" spans="1:11" ht="12.75"/>
-    <row r="31" spans="1:11" ht="12.75"/>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
@@ -7868,7 +7871,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -7883,15 +7886,15 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -7899,15 +7902,15 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -7916,36 +7919,36 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" s="31" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
@@ -7980,11 +7983,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="120">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="110" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -8013,9 +8016,9 @@
       </c>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:11" ht="210">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>920</v>
@@ -8040,9 +8043,9 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="210">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>325</v>
@@ -8067,9 +8070,9 @@
       </c>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>326</v>
@@ -8094,9 +8097,9 @@
       </c>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" ht="180">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>328</v>
@@ -8121,9 +8124,9 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="135">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
         <v>926</v>
@@ -8148,9 +8151,9 @@
       </c>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="1:11" ht="135">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
         <v>925</v>
@@ -8175,9 +8178,9 @@
       </c>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="1:11" ht="105">
-      <c r="A20" s="106"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37"/>
       <c r="D20" s="36" t="s">
         <v>330</v>
@@ -8202,9 +8205,9 @@
       </c>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="1:11" ht="90">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="37"/>
       <c r="D21" s="36" t="s">
         <v>332</v>
@@ -8229,14 +8232,14 @@
       </c>
       <c r="K21" s="60"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="F23" s="33"/>
       <c r="H23" s="33"/>
     </row>
@@ -8275,7 +8278,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="33" customWidth="1"/>
@@ -8291,16 +8294,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -8309,15 +8312,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -8327,7 +8330,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -8335,7 +8338,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -8343,7 +8346,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -8351,7 +8354,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -8359,8 +8362,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
@@ -8395,11 +8398,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A13" s="107" t="s">
         <v>950</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="110" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -8428,9 +8431,9 @@
       </c>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -8457,9 +8460,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -8486,9 +8489,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -8515,9 +8518,9 @@
       </c>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -8544,9 +8547,9 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -8573,9 +8576,9 @@
       </c>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -8602,9 +8605,9 @@
       </c>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="75">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -8681,7 +8684,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="33" customWidth="1"/>
@@ -8696,16 +8699,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -8714,15 +8717,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -8732,7 +8735,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -8740,7 +8743,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -8748,7 +8751,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -8756,7 +8759,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -8764,8 +8767,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -8800,14 +8803,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K11" s="63"/>
     </row>
-    <row r="12" spans="1:11" ht="102" customHeight="1">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="107" t="s">
         <v>950</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="107" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -8836,9 +8839,9 @@
       </c>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="1:11" ht="102" customHeight="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
+    <row r="13" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="37" t="s">
         <v>516</v>
       </c>
@@ -8865,9 +8868,9 @@
       </c>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="102" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
+    <row r="14" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="37" t="s">
         <v>517</v>
       </c>
@@ -8894,9 +8897,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -8923,9 +8926,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="360">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
+    <row r="16" spans="1:11" ht="360" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -8948,9 +8951,9 @@
       <c r="J16" s="88"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="150">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
+    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -8977,9 +8980,9 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="105">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -9006,9 +9009,9 @@
       </c>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="165">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
+    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.2">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -9035,9 +9038,9 @@
       </c>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -9064,9 +9067,9 @@
       </c>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="37" t="s">
         <v>523</v>
       </c>
@@ -9093,9 +9096,9 @@
       </c>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="37" t="s">
         <v>524</v>
       </c>
@@ -9122,9 +9125,9 @@
       </c>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="1:11" ht="75">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="37" t="s">
         <v>525</v>
       </c>
@@ -9151,9 +9154,9 @@
       </c>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="75">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="37" t="s">
         <v>526</v>
       </c>
@@ -9229,7 +9232,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="40" style="33" customWidth="1"/>
@@ -9245,16 +9248,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -9263,15 +9266,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -9281,7 +9284,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -9289,7 +9292,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -9297,7 +9300,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -9305,7 +9308,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -9313,8 +9316,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="12" spans="1:11" s="31" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" s="31" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>6</v>
       </c>
@@ -9349,11 +9352,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="115" t="s">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="117" t="s">
         <v>999</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="110" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="37"/>
@@ -9380,9 +9383,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="116"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="118"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37"/>
       <c r="D15" s="76" t="s">
         <v>974</v>
@@ -9407,9 +9410,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="116"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="A16" s="118"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37"/>
       <c r="D16" s="76" t="s">
         <v>337</v>
@@ -9434,9 +9437,9 @@
       </c>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="120">
-      <c r="A17" s="116"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="118"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37"/>
       <c r="D17" s="76" t="s">
         <v>339</v>
@@ -9461,9 +9464,9 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="165">
-      <c r="A18" s="116"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="165" x14ac:dyDescent="0.2">
+      <c r="A18" s="118"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37"/>
       <c r="D18" s="76" t="s">
         <v>980</v>
@@ -9488,9 +9491,9 @@
       </c>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="300">
-      <c r="A19" s="116"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="300" x14ac:dyDescent="0.2">
+      <c r="A19" s="118"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37"/>
       <c r="D19" s="76" t="s">
         <v>340</v>
@@ -9515,9 +9518,9 @@
       </c>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="210">
-      <c r="A20" s="116"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:11" ht="210" x14ac:dyDescent="0.2">
+      <c r="A20" s="118"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37"/>
       <c r="D20" s="76" t="s">
         <v>341</v>
@@ -9542,9 +9545,9 @@
       </c>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="1:11" ht="210">
-      <c r="A21" s="116"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.2">
+      <c r="A21" s="118"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="37"/>
       <c r="D21" s="76" t="s">
         <v>995</v>
@@ -9569,9 +9572,9 @@
       </c>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="1:11" ht="210">
-      <c r="A22" s="116"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:11" ht="210" x14ac:dyDescent="0.2">
+      <c r="A22" s="118"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="37"/>
       <c r="D22" s="76" t="s">
         <v>993</v>
@@ -9596,9 +9599,9 @@
       </c>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="1:11" ht="180">
-      <c r="A23" s="116"/>
-      <c r="B23" s="109"/>
+    <row r="23" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+      <c r="A23" s="118"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="37"/>
       <c r="D23" s="76" t="s">
         <v>343</v>
@@ -9623,9 +9626,9 @@
       </c>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="120">
-      <c r="A24" s="116"/>
-      <c r="B24" s="109"/>
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A24" s="118"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="37"/>
       <c r="D24" s="76" t="s">
         <v>996</v>
@@ -9650,9 +9653,9 @@
       </c>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="1:11" ht="165">
-      <c r="A25" s="116"/>
-      <c r="B25" s="109"/>
+    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.2">
+      <c r="A25" s="118"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="37"/>
       <c r="D25" s="76" t="s">
         <v>345</v>
@@ -9677,9 +9680,9 @@
       </c>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="1:11" ht="409.5">
-      <c r="A26" s="116"/>
-      <c r="B26" s="109"/>
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="118"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="37"/>
       <c r="D26" s="76" t="s">
         <v>347</v>
@@ -9700,9 +9703,9 @@
       <c r="J26" s="85"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="1:11" ht="409.5">
-      <c r="A27" s="116"/>
-      <c r="B27" s="109"/>
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="118"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="37"/>
       <c r="D27" s="76" t="s">
         <v>349</v>
@@ -9723,9 +9726,9 @@
       <c r="J27" s="85"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="1:11" ht="90">
-      <c r="A28" s="116"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A28" s="118"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="37"/>
       <c r="D28" s="76" t="s">
         <v>351</v>
@@ -9750,9 +9753,9 @@
       </c>
       <c r="K28" s="63"/>
     </row>
-    <row r="29" spans="1:11" ht="90">
-      <c r="A29" s="117"/>
-      <c r="B29" s="110"/>
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A29" s="119"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="37"/>
       <c r="D29" s="76" t="s">
         <v>334</v>
@@ -9840,7 +9843,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" style="31" customWidth="1"/>
@@ -9856,15 +9859,15 @@
     <col min="12" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="78" t="s">
         <v>0</v>
@@ -9872,15 +9875,15 @@
       <c r="D3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="79" t="s">
         <v>1</v>
@@ -9889,36 +9892,36 @@
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="80" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="80" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="78" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="63.75">
+    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -9980,7 +9983,7 @@
       </c>
       <c r="K12" s="61"/>
     </row>
-    <row r="13" spans="1:11" ht="51">
+    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -10007,7 +10010,7 @@
       </c>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25">
+    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -10034,7 +10037,7 @@
       </c>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -10061,7 +10064,7 @@
       </c>
       <c r="K15" s="61"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25">
+    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -10088,7 +10091,7 @@
       </c>
       <c r="K16" s="61"/>
     </row>
-    <row r="17" spans="1:11" ht="63.75">
+    <row r="17" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -10115,7 +10118,7 @@
       </c>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75">
+    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -10142,7 +10145,7 @@
       </c>
       <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="1:11" ht="51">
+    <row r="19" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -10169,7 +10172,7 @@
       </c>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="1:11" ht="51">
+    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -10196,7 +10199,7 @@
       </c>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="1:11" ht="51">
+    <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -10256,7 +10259,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="33" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" style="33" customWidth="1"/>
@@ -10272,16 +10275,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -10290,15 +10293,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -10308,7 +10311,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -10316,7 +10319,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -10324,7 +10327,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -10332,7 +10335,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -10340,8 +10343,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.75" thickBot="1">
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -10376,11 +10379,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="88.5" customHeight="1">
-      <c r="A12" s="118" t="s">
+    <row r="12" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="120" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -10405,9 +10408,9 @@
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
     </row>
-    <row r="13" spans="1:11" ht="183.75" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:11" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="81"/>
       <c r="D13" s="75" t="s">
         <v>299</v>
@@ -10428,9 +10431,9 @@
       <c r="J13" s="93"/>
       <c r="K13" s="93"/>
     </row>
-    <row r="14" spans="1:11" ht="258.75" customHeight="1">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
+    <row r="14" spans="1:11" ht="258.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="81"/>
       <c r="D14" s="75" t="s">
         <v>301</v>
@@ -10451,9 +10454,9 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
     </row>
-    <row r="15" spans="1:11" ht="268.5" customHeight="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
+    <row r="15" spans="1:11" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="81"/>
       <c r="D15" s="75" t="s">
         <v>303</v>
@@ -10474,9 +10477,9 @@
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
     </row>
-    <row r="16" spans="1:11" ht="165" customHeight="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
+    <row r="16" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="81"/>
       <c r="D16" s="75" t="s">
         <v>305</v>
@@ -10497,9 +10500,9 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
     </row>
-    <row r="17" spans="1:11" ht="123.75" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
+    <row r="17" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="81"/>
       <c r="D17" s="75" t="s">
         <v>1096</v>
@@ -10520,9 +10523,9 @@
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
     </row>
-    <row r="18" spans="1:11" ht="408.75" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
+    <row r="18" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="81"/>
       <c r="D18" s="75" t="s">
         <v>307</v>
@@ -10543,9 +10546,9 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
     </row>
-    <row r="19" spans="1:11" ht="135" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
+    <row r="19" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="81"/>
       <c r="D19" s="75" t="s">
         <v>1101</v>
@@ -10566,9 +10569,9 @@
       <c r="J19" s="93"/>
       <c r="K19" s="93"/>
     </row>
-    <row r="20" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
+    <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="81"/>
       <c r="D20" s="75" t="s">
         <v>308</v>
@@ -10589,9 +10592,9 @@
       <c r="J20" s="93"/>
       <c r="K20" s="93"/>
     </row>
-    <row r="21" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
+    <row r="21" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="81"/>
       <c r="D21" s="75" t="s">
         <v>310</v>
@@ -10647,7 +10650,7 @@
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="33" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="33" customWidth="1"/>
@@ -10663,20 +10666,20 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" thickBot="1">
+    <row r="3" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -10689,7 +10692,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -10698,15 +10701,15 @@
         <v>754</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -10714,7 +10717,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -10722,7 +10725,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -10730,7 +10733,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -10738,8 +10741,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -10774,11 +10777,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="110" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -10803,9 +10806,9 @@
       <c r="J12" s="85"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="37"/>
       <c r="D13" s="36" t="s">
         <v>1013</v>
@@ -10826,9 +10829,9 @@
       <c r="J13" s="85"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="180">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>357</v>
@@ -10849,9 +10852,9 @@
       <c r="J14" s="85"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="60">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>359</v>
@@ -10872,9 +10875,9 @@
       <c r="J15" s="85"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>360</v>
@@ -10895,9 +10898,9 @@
       <c r="J16" s="85"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>362</v>
@@ -10918,9 +10921,9 @@
       <c r="J17" s="85"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
         <v>364</v>
@@ -10941,9 +10944,9 @@
       <c r="J18" s="85"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="90">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
         <v>366</v>
@@ -10964,9 +10967,9 @@
       <c r="J19" s="85"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="75">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="37"/>
       <c r="D20" s="36" t="s">
         <v>368</v>
@@ -11023,7 +11026,7 @@
       <selection activeCell="G2" activeCellId="2" sqref="E2 F2 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -11038,12 +11041,12 @@
     <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="99" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="98"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="15"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -11053,7 +11056,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="21" thickBot="1">
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -11062,10 +11065,10 @@
         <v>26</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="F2" s="122"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="14" t="s">
         <v>1107</v>
       </c>
@@ -11074,7 +11077,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -11091,7 +11094,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -11106,7 +11109,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -11121,7 +11124,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -11136,7 +11139,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -11151,7 +11154,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="13"/>
       <c r="C8" s="19"/>
@@ -11164,7 +11167,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" thickBot="1">
+    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -11212,11 +11215,11 @@
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="90">
-      <c r="A11" s="101" t="s">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="101" t="s">
         <v>597</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -11244,9 +11247,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="75">
-      <c r="A12" s="102"/>
-      <c r="B12" s="100"/>
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="35" t="s">
         <v>516</v>
       </c>
@@ -11272,9 +11275,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="102"/>
-      <c r="B13" s="100"/>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="35" t="s">
         <v>517</v>
       </c>
@@ -11300,9 +11303,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="90">
-      <c r="A14" s="102"/>
-      <c r="B14" s="100"/>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="35" t="s">
         <v>518</v>
       </c>
@@ -11328,9 +11331,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="102"/>
-      <c r="B15" s="100"/>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="35" t="s">
         <v>519</v>
       </c>
@@ -11356,9 +11359,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="75">
-      <c r="A16" s="102"/>
-      <c r="B16" s="100"/>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="35" t="s">
         <v>520</v>
       </c>
@@ -11384,9 +11387,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="100"/>
+    <row r="17" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="35" t="s">
         <v>521</v>
       </c>
@@ -11412,9 +11415,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100"/>
+    <row r="18" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="35" t="s">
         <v>532</v>
       </c>
@@ -11440,9 +11443,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+    <row r="19" spans="1:10" s="32" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="35" t="s">
         <v>533</v>
       </c>
@@ -11468,9 +11471,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="180">
-      <c r="A20" s="102"/>
-      <c r="B20" s="100"/>
+    <row r="20" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="35" t="s">
         <v>524</v>
       </c>
@@ -11496,9 +11499,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="180">
-      <c r="A21" s="102"/>
-      <c r="B21" s="100"/>
+    <row r="21" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="35" t="s">
         <v>525</v>
       </c>
@@ -11524,9 +11527,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="180">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100"/>
+    <row r="22" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="35" t="s">
         <v>526</v>
       </c>
@@ -11552,9 +11555,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="180">
-      <c r="A23" s="102"/>
-      <c r="B23" s="100"/>
+    <row r="23" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="35" t="s">
         <v>527</v>
       </c>
@@ -11580,9 +11583,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="165">
-      <c r="A24" s="102"/>
-      <c r="B24" s="100"/>
+    <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="35" t="s">
         <v>528</v>
       </c>
@@ -11608,9 +11611,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A25" s="102"/>
-      <c r="B25" s="100"/>
+    <row r="25" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="104"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="35" t="s">
         <v>529</v>
       </c>
@@ -11636,9 +11639,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="165">
-      <c r="A26" s="102"/>
-      <c r="B26" s="100"/>
+    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="35" t="s">
         <v>530</v>
       </c>
@@ -11664,9 +11667,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="165">
-      <c r="A27" s="102"/>
-      <c r="B27" s="100"/>
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="104"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="35" t="s">
         <v>531</v>
       </c>
@@ -11692,9 +11695,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="165">
-      <c r="A28" s="102"/>
-      <c r="B28" s="100"/>
+    <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="35" t="s">
         <v>534</v>
       </c>
@@ -11720,9 +11723,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A29" s="102"/>
-      <c r="B29" s="100"/>
+    <row r="29" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="104"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="35" t="s">
         <v>535</v>
       </c>
@@ -11748,9 +11751,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="165">
-      <c r="A30" s="102"/>
-      <c r="B30" s="100"/>
+    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="35" t="s">
         <v>536</v>
       </c>
@@ -11776,9 +11779,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="165">
-      <c r="A31" s="102"/>
-      <c r="B31" s="100"/>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="35" t="s">
         <v>537</v>
       </c>
@@ -11804,9 +11807,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A32" s="102"/>
-      <c r="B32" s="100"/>
+    <row r="32" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="35" t="s">
         <v>538</v>
       </c>
@@ -11832,9 +11835,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A33" s="102"/>
-      <c r="B33" s="100"/>
+    <row r="33" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="35" t="s">
         <v>538</v>
       </c>
@@ -11860,9 +11863,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A34" s="102"/>
-      <c r="B34" s="100"/>
+    <row r="34" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="35" t="s">
         <v>539</v>
       </c>
@@ -11888,9 +11891,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="165">
-      <c r="A35" s="102"/>
-      <c r="B35" s="100"/>
+    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="104"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="35" t="s">
         <v>540</v>
       </c>
@@ -11916,9 +11919,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="165">
-      <c r="A36" s="102"/>
-      <c r="B36" s="100"/>
+    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="35" t="s">
         <v>541</v>
       </c>
@@ -11944,9 +11947,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="165">
-      <c r="A37" s="102"/>
-      <c r="B37" s="100"/>
+    <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="35" t="s">
         <v>542</v>
       </c>
@@ -11972,9 +11975,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="165">
-      <c r="A38" s="102"/>
-      <c r="B38" s="100"/>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="35" t="s">
         <v>543</v>
       </c>
@@ -12000,9 +12003,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="165">
-      <c r="A39" s="102"/>
-      <c r="B39" s="100"/>
+    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="35" t="s">
         <v>544</v>
       </c>
@@ -12028,9 +12031,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A40" s="102"/>
-      <c r="B40" s="100"/>
+    <row r="40" spans="1:10" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="35" t="s">
         <v>545</v>
       </c>
@@ -12056,9 +12059,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A41" s="102"/>
-      <c r="B41" s="100"/>
+    <row r="41" spans="1:10" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="35" t="s">
         <v>550</v>
       </c>
@@ -12084,9 +12087,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A42" s="102"/>
-      <c r="B42" s="100"/>
+    <row r="42" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="35" t="s">
         <v>549</v>
       </c>
@@ -12112,9 +12115,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A43" s="102"/>
-      <c r="B43" s="100"/>
+    <row r="43" spans="1:10" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="35" t="s">
         <v>546</v>
       </c>
@@ -12138,9 +12141,9 @@
       </c>
       <c r="J43" s="47"/>
     </row>
-    <row r="44" spans="1:10" s="32" customFormat="1" ht="135">
-      <c r="A44" s="102"/>
-      <c r="B44" s="100"/>
+    <row r="44" spans="1:10" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="35" t="s">
         <v>547</v>
       </c>
@@ -12164,9 +12167,9 @@
       </c>
       <c r="J44" s="47"/>
     </row>
-    <row r="45" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A45" s="102"/>
-      <c r="B45" s="100"/>
+    <row r="45" spans="1:10" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="35" t="s">
         <v>548</v>
       </c>
@@ -12192,9 +12195,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="135">
-      <c r="A46" s="102"/>
-      <c r="B46" s="100"/>
+    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="104"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="35" t="s">
         <v>551</v>
       </c>
@@ -12220,9 +12223,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="90">
-      <c r="A47" s="102"/>
-      <c r="B47" s="100"/>
+    <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="35" t="s">
         <v>552</v>
       </c>
@@ -12248,9 +12251,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="105">
-      <c r="A48" s="102"/>
-      <c r="B48" s="100"/>
+    <row r="48" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="104"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="35" t="s">
         <v>553</v>
       </c>
@@ -12276,9 +12279,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="150">
-      <c r="A49" s="102"/>
-      <c r="B49" s="100"/>
+    <row r="49" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="35" t="s">
         <v>554</v>
       </c>
@@ -12304,9 +12307,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="150">
-      <c r="A50" s="102"/>
-      <c r="B50" s="100"/>
+    <row r="50" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="104"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="35" t="s">
         <v>555</v>
       </c>
@@ -12332,8 +12335,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="45" customFormat="1"/>
-    <row r="53" spans="1:10" s="45" customFormat="1"/>
+    <row r="52" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -12356,7 +12359,7 @@
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
@@ -12371,15 +12374,15 @@
     <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" thickBot="1">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -12391,7 +12394,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -12399,44 +12402,44 @@
       <c r="D4" s="51" t="s">
         <v>1015</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -12471,11 +12474,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="178.5" customHeight="1">
-      <c r="A12" s="105" t="s">
+    <row r="12" spans="1:11" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="110" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -12500,9 +12503,9 @@
       <c r="J12" s="85"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="1:11" ht="165">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="37"/>
       <c r="D13" s="36" t="s">
         <v>373</v>
@@ -12523,9 +12526,9 @@
       <c r="J13" s="85"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:11" ht="120">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="37"/>
       <c r="D14" s="36" t="s">
         <v>375</v>
@@ -12546,9 +12549,9 @@
       <c r="J14" s="85"/>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="135">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37"/>
       <c r="D15" s="36" t="s">
         <v>377</v>
@@ -12569,9 +12572,9 @@
       <c r="J15" s="85"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="135">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37"/>
       <c r="D16" s="36" t="s">
         <v>379</v>
@@ -12592,9 +12595,9 @@
       <c r="J16" s="85"/>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" ht="114.75" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37"/>
       <c r="D17" s="36" t="s">
         <v>381</v>
@@ -12615,9 +12618,9 @@
       <c r="J17" s="85"/>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37"/>
       <c r="D18" s="36" t="s">
         <v>383</v>
@@ -12638,9 +12641,9 @@
       <c r="J18" s="85"/>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="1:11" ht="51" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
+    <row r="19" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="109"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="37"/>
       <c r="D19" s="36" t="s">
         <v>385</v>
@@ -12661,24 +12664,24 @@
       <c r="J19" s="85"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="33"/>
       <c r="F23" s="33"/>
     </row>
@@ -12717,7 +12720,7 @@
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" style="33" customWidth="1"/>
@@ -12733,16 +12736,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" thickBot="1">
+    <row r="3" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -12755,7 +12758,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -12764,15 +12767,15 @@
         <v>755</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -12780,7 +12783,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -12788,7 +12791,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -12796,7 +12799,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -12804,8 +12807,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="36" t="s">
         <v>47</v>
@@ -12867,7 +12870,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="45">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -12890,7 +12893,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="120">
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -12913,7 +12916,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="60">
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -12936,7 +12939,7 @@
       <c r="J16" s="36"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="75">
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -12959,7 +12962,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="120">
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12982,7 +12985,7 @@
       <c r="J18" s="36"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="75">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13005,7 +13008,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="75">
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -13028,7 +13031,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="1:11" ht="75">
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -13051,7 +13054,7 @@
       <c r="J21" s="36"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="1:11" ht="90">
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -13074,7 +13077,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="1:11" ht="75">
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -13097,7 +13100,7 @@
       <c r="J23" s="36"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="270">
+    <row r="24" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -13120,7 +13123,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="1:11" ht="105">
+    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -13143,7 +13146,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="1:11" ht="120">
+    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -13166,7 +13169,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="1:11" ht="120">
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -13189,7 +13192,7 @@
       <c r="J27" s="36"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="1:11" ht="90">
+    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -13212,7 +13215,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="63"/>
     </row>
-    <row r="29" spans="1:11" ht="75">
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -13282,7 +13285,7 @@
       <selection activeCell="F4" sqref="F4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="94" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="94" customWidth="1"/>
@@ -13298,16 +13301,16 @@
     <col min="12" max="16384" width="9.140625" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="30" thickBot="1">
+    <row r="3" spans="1:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -13320,7 +13323,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" thickBot="1">
+    <row r="4" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -13329,15 +13332,15 @@
         <v>682</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -13345,7 +13348,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -13353,7 +13356,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -13361,7 +13364,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -13369,8 +13372,8 @@
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="18.75" thickBot="1">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="92" customFormat="1" ht="110.25" customHeight="1">
+    <row r="13" spans="1:11" s="92" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -13428,7 +13431,7 @@
       <c r="J13" s="93"/>
       <c r="K13" s="93"/>
     </row>
-    <row r="14" spans="1:11" s="92" customFormat="1" ht="216.75">
+    <row r="14" spans="1:11" s="92" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
@@ -13451,7 +13454,7 @@
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
     </row>
-    <row r="15" spans="1:11" ht="151.5" customHeight="1">
+    <row r="15" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="95"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
@@ -13474,7 +13477,7 @@
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
     </row>
-    <row r="16" spans="1:11" s="92" customFormat="1" ht="155.25" customHeight="1">
+    <row r="16" spans="1:11" s="92" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
@@ -13497,7 +13500,7 @@
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
     </row>
-    <row r="17" spans="1:11" ht="137.25" customHeight="1">
+    <row r="17" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="95"/>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -13520,7 +13523,7 @@
       <c r="J17" s="95"/>
       <c r="K17" s="95"/>
     </row>
-    <row r="18" spans="1:11" s="92" customFormat="1" ht="144.75" customHeight="1">
+    <row r="18" spans="1:11" s="92" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
@@ -13543,7 +13546,7 @@
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
     </row>
-    <row r="19" spans="1:11" ht="127.5">
+    <row r="19" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="95"/>
       <c r="B19" s="95"/>
       <c r="C19" s="95"/>
@@ -13566,7 +13569,7 @@
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
     </row>
-    <row r="20" spans="1:11" s="92" customFormat="1" ht="89.25">
+    <row r="20" spans="1:11" s="92" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
@@ -13589,7 +13592,7 @@
       <c r="J20" s="93"/>
       <c r="K20" s="93"/>
     </row>
-    <row r="21" spans="1:11" ht="63.75">
+    <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="95"/>
       <c r="B21" s="95"/>
       <c r="C21" s="95"/>
@@ -13612,7 +13615,7 @@
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
     </row>
-    <row r="22" spans="1:11" s="92" customFormat="1" ht="83.25" customHeight="1">
+    <row r="22" spans="1:11" s="92" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
@@ -13635,7 +13638,7 @@
       <c r="J22" s="93"/>
       <c r="K22" s="93"/>
     </row>
-    <row r="23" spans="1:11" ht="73.5" customHeight="1">
+    <row r="23" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95"/>
       <c r="B23" s="95"/>
       <c r="C23" s="95"/>
@@ -13677,7 +13680,7 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -13693,14 +13696,14 @@
     <col min="12" max="12" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" thickBot="1">
+    <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="104"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" thickBot="1">
+      <c r="C1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -13708,15 +13711,15 @@
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="F2" s="122"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" thickBot="1">
+    <row r="3" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -13725,40 +13728,40 @@
         <v>682</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" thickBot="1">
+    <row r="4" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="52"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75" thickBot="1">
+    <row r="5" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="52"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" thickBot="1">
+    <row r="6" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="53"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" thickBot="1">
+    <row r="7" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="52"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" thickBot="1">
+    <row r="8" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="13"/>
       <c r="C8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" thickBot="1">
+    <row r="9" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>681</v>
       </c>
@@ -13796,11 +13799,11 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="180">
-      <c r="A11" s="105" t="s">
+    <row r="11" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="107" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -13829,9 +13832,9 @@
       </c>
       <c r="K11" s="67"/>
     </row>
-    <row r="12" spans="1:12" ht="180">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
+    <row r="12" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="37" t="s">
         <v>516</v>
       </c>
@@ -13858,9 +13861,9 @@
       </c>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="180">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
+    <row r="13" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="37" t="s">
         <v>517</v>
       </c>
@@ -13887,9 +13890,9 @@
       </c>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="180">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="37" t="s">
         <v>518</v>
       </c>
@@ -13916,9 +13919,9 @@
       </c>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="135">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="37" t="s">
         <v>519</v>
       </c>
@@ -13945,9 +13948,9 @@
       </c>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="120">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
+    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="37" t="s">
         <v>520</v>
       </c>
@@ -13974,9 +13977,9 @@
       </c>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" ht="285">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
+    <row r="17" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="37" t="s">
         <v>521</v>
       </c>
@@ -14003,9 +14006,9 @@
       </c>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" ht="75">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="37" t="s">
         <v>522</v>
       </c>
@@ -14032,9 +14035,9 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="270">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
+    <row r="19" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="37" t="s">
         <v>523</v>
       </c>
@@ -14063,9 +14066,9 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="32" customFormat="1" ht="180">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
+    <row r="20" spans="1:11" s="32" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="37" t="s">
         <v>524</v>
       </c>
@@ -14092,9 +14095,9 @@
       </c>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="1:11" s="32" customFormat="1" ht="210">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="37" t="s">
         <v>525</v>
       </c>
@@ -14121,9 +14124,9 @@
       </c>
       <c r="K21" s="46"/>
     </row>
-    <row r="22" spans="1:11" ht="210">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
+    <row r="22" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="37" t="s">
         <v>526</v>
       </c>
@@ -14146,9 +14149,9 @@
       <c r="J22" s="69"/>
       <c r="K22" s="37"/>
     </row>
-    <row r="23" spans="1:11" s="32" customFormat="1" ht="210">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
+    <row r="23" spans="1:11" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="37" t="s">
         <v>527</v>
       </c>
@@ -14175,9 +14178,9 @@
       </c>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="1:11" ht="135">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
+    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="37" t="s">
         <v>528</v>
       </c>
@@ -14204,9 +14207,9 @@
       </c>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" ht="195">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
+    <row r="25" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="37" t="s">
         <v>529</v>
       </c>
@@ -14233,9 +14236,9 @@
       </c>
       <c r="K25" s="37"/>
     </row>
-    <row r="26" spans="1:11" ht="165">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
+    <row r="26" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="37" t="s">
         <v>530</v>
       </c>
@@ -14262,9 +14265,9 @@
       </c>
       <c r="K26" s="37"/>
     </row>
-    <row r="27" spans="1:11" ht="210">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
+    <row r="27" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="37" t="s">
         <v>531</v>
       </c>
@@ -14291,9 +14294,9 @@
       </c>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:11" ht="180">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
+    <row r="28" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="37" t="s">
         <v>532</v>
       </c>
@@ -14316,9 +14319,9 @@
       <c r="J28" s="70"/>
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="1:11" ht="210">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
+    <row r="29" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="37" t="s">
         <v>533</v>
       </c>
@@ -14345,9 +14348,9 @@
       </c>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:11" ht="75">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="37" t="s">
         <v>534</v>
       </c>
@@ -14374,9 +14377,9 @@
       </c>
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="1:11" ht="75">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="37" t="s">
         <v>535</v>
       </c>
@@ -14403,9 +14406,9 @@
       </c>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:11" ht="60">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="37" t="s">
         <v>536</v>
       </c>
@@ -14475,7 +14478,7 @@
       <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
@@ -14490,14 +14493,14 @@
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="48"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="104"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickBot="1">
+      <c r="D1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="49"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -14505,15 +14508,15 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G2" s="122"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" thickBot="1">
+    <row r="3" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="49"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -14522,37 +14525,37 @@
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="52"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:11" ht="8.25" hidden="1" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:11" s="31" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="8.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" s="31" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>6</v>
       </c>
@@ -14587,11 +14590,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="133.5" customHeight="1">
-      <c r="A14" s="105" t="s">
+    <row r="14" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="110" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="37" t="s">
@@ -14620,9 +14623,9 @@
       </c>
       <c r="K14" s="60"/>
     </row>
-    <row r="15" spans="1:11" ht="60">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37" t="s">
         <v>516</v>
       </c>
@@ -14649,9 +14652,9 @@
       </c>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="45">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37" t="s">
         <v>517</v>
       </c>
@@ -14678,9 +14681,9 @@
       </c>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37" t="s">
         <v>518</v>
       </c>
@@ -14707,9 +14710,9 @@
       </c>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="1:11" ht="120">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37" t="s">
         <v>519</v>
       </c>
@@ -14736,9 +14739,9 @@
       </c>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="1:11" ht="80.25" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37" t="s">
         <v>520</v>
       </c>
@@ -14765,9 +14768,9 @@
       </c>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="1:11" ht="60">
-      <c r="A20" s="106"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37" t="s">
         <v>521</v>
       </c>
@@ -14794,9 +14797,9 @@
       </c>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="1:11" ht="60">
-      <c r="A21" s="107"/>
-      <c r="B21" s="110"/>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="37" t="s">
         <v>522</v>
       </c>
@@ -14860,7 +14863,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="31" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="31" customWidth="1"/>
@@ -14876,16 +14879,16 @@
     <col min="12" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -14894,15 +14897,15 @@
         <v>26</v>
       </c>
       <c r="E3" s="32"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -14912,7 +14915,7 @@
       </c>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -14920,7 +14923,7 @@
       <c r="D5" s="52"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -14928,7 +14931,7 @@
       <c r="D6" s="52"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -14936,7 +14939,7 @@
       <c r="D7" s="53"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -14944,8 +14947,8 @@
       <c r="D8" s="52"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -14980,11 +14983,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="330">
-      <c r="A12" s="111" t="s">
+    <row r="12" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A12" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="113" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -15013,9 +15016,9 @@
       </c>
       <c r="K12" s="61"/>
     </row>
-    <row r="13" spans="1:11" ht="330">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
+    <row r="13" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="36" t="s">
         <v>516</v>
       </c>
@@ -15042,9 +15045,9 @@
       </c>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="1:11" ht="135">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="36" t="s">
         <v>517</v>
       </c>
@@ -15071,9 +15074,9 @@
       </c>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="1:11" ht="120">
-      <c r="A15" s="112"/>
-      <c r="B15" s="112"/>
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="36" t="s">
         <v>518</v>
       </c>
@@ -15100,9 +15103,9 @@
       </c>
       <c r="K15" s="61"/>
     </row>
-    <row r="16" spans="1:11" ht="165">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
+    <row r="16" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="36" t="s">
         <v>519</v>
       </c>
@@ -15129,9 +15132,9 @@
       </c>
       <c r="K16" s="61"/>
     </row>
-    <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="112"/>
-      <c r="B17" s="112"/>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="36" t="s">
         <v>520</v>
       </c>
@@ -15158,9 +15161,9 @@
       </c>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="1:11" ht="255">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
+    <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="36" t="s">
         <v>521</v>
       </c>
@@ -15187,9 +15190,9 @@
       </c>
       <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="1:11" ht="255">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
+    <row r="19" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="36" t="s">
         <v>522</v>
       </c>
@@ -15216,9 +15219,9 @@
       </c>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="1:11" ht="120">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
+    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="114"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="36" t="s">
         <v>523</v>
       </c>
@@ -15245,9 +15248,9 @@
       </c>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="1:11" ht="120">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
+    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="36" t="s">
         <v>524</v>
       </c>
@@ -15274,9 +15277,9 @@
       </c>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="1:11" ht="120">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
+    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="36" t="s">
         <v>525</v>
       </c>
@@ -15303,9 +15306,9 @@
       </c>
       <c r="K22" s="61"/>
     </row>
-    <row r="23" spans="1:11" ht="120">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
+    <row r="23" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="36" t="s">
         <v>526</v>
       </c>
@@ -15332,9 +15335,9 @@
       </c>
       <c r="K23" s="61"/>
     </row>
-    <row r="24" spans="1:11" ht="120">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="36" t="s">
         <v>527</v>
       </c>
@@ -15361,9 +15364,9 @@
       </c>
       <c r="K24" s="61"/>
     </row>
-    <row r="25" spans="1:11" ht="75">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="36" t="s">
         <v>528</v>
       </c>
@@ -15390,9 +15393,9 @@
       </c>
       <c r="K25" s="61"/>
     </row>
-    <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="36" t="s">
         <v>529</v>
       </c>
@@ -15419,9 +15422,9 @@
       </c>
       <c r="K26" s="61"/>
     </row>
-    <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="36" t="s">
         <v>530</v>
       </c>
@@ -15448,9 +15451,9 @@
       </c>
       <c r="K27" s="61"/>
     </row>
-    <row r="28" spans="1:11" ht="60">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="36" t="s">
         <v>531</v>
       </c>
@@ -15477,9 +15480,9 @@
       </c>
       <c r="K28" s="61"/>
     </row>
-    <row r="29" spans="1:11" ht="120">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
+    <row r="29" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="36" t="s">
         <v>532</v>
       </c>
@@ -15506,9 +15509,9 @@
       </c>
       <c r="K29" s="61"/>
     </row>
-    <row r="30" spans="1:11" ht="45">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="36" t="s">
         <v>533</v>
       </c>
@@ -15535,9 +15538,9 @@
       </c>
       <c r="K30" s="61"/>
     </row>
-    <row r="31" spans="1:11" ht="90">
-      <c r="A31" s="112"/>
-      <c r="B31" s="112"/>
+    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="36" t="s">
         <v>534</v>
       </c>
@@ -15564,9 +15567,9 @@
       </c>
       <c r="K31" s="61"/>
     </row>
-    <row r="32" spans="1:11" ht="45">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="36" t="s">
         <v>535</v>
       </c>
@@ -15593,9 +15596,9 @@
       </c>
       <c r="K32" s="61"/>
     </row>
-    <row r="33" spans="1:11" ht="135">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
+    <row r="33" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="36" t="s">
         <v>536</v>
       </c>
@@ -15622,9 +15625,9 @@
       </c>
       <c r="K33" s="61"/>
     </row>
-    <row r="34" spans="1:11" ht="60">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="36" t="s">
         <v>537</v>
       </c>
@@ -15672,7 +15675,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="31" customWidth="1"/>
@@ -15688,16 +15691,16 @@
     <col min="12" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="21" thickBot="1">
+    <row r="3" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -15706,15 +15709,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -15724,7 +15727,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -15732,7 +15735,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -15740,7 +15743,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -15748,7 +15751,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -15756,8 +15759,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:11" ht="36" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
@@ -15792,11 +15795,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="110" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -15825,9 +15828,9 @@
       </c>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="1:11" ht="90">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="36" t="s">
         <v>516</v>
       </c>
@@ -15854,9 +15857,9 @@
       </c>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="1:11" ht="75">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="36" t="s">
         <v>517</v>
       </c>
@@ -15885,9 +15888,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="109"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="36" t="s">
         <v>518</v>
       </c>
@@ -15914,9 +15917,9 @@
       </c>
       <c r="K16" s="61"/>
     </row>
-    <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="109"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="36" t="s">
         <v>519</v>
       </c>
@@ -15943,9 +15946,9 @@
       </c>
       <c r="K17" s="61"/>
     </row>
-    <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="109"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="36" t="s">
         <v>520</v>
       </c>
@@ -15972,9 +15975,9 @@
       </c>
       <c r="K18" s="61"/>
     </row>
-    <row r="19" spans="1:11" ht="60">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="36" t="s">
         <v>521</v>
       </c>
@@ -16001,9 +16004,9 @@
       </c>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="1:11" ht="90">
-      <c r="A20" s="109"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="36" t="s">
         <v>522</v>
       </c>
@@ -16030,9 +16033,9 @@
       </c>
       <c r="K20" s="61"/>
     </row>
-    <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="36" t="s">
         <v>523</v>
       </c>
@@ -16059,9 +16062,9 @@
       </c>
       <c r="K21" s="61"/>
     </row>
-    <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="36" t="s">
         <v>524</v>
       </c>
@@ -16088,9 +16091,9 @@
       </c>
       <c r="K22" s="61"/>
     </row>
-    <row r="23" spans="1:11" ht="135">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
+    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="36" t="s">
         <v>525</v>
       </c>
@@ -16117,9 +16120,9 @@
       </c>
       <c r="K23" s="61"/>
     </row>
-    <row r="24" spans="1:11" ht="180">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
+    <row r="24" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="36" t="s">
         <v>526</v>
       </c>
@@ -16146,9 +16149,9 @@
       </c>
       <c r="K24" s="61"/>
     </row>
-    <row r="25" spans="1:11" ht="210">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
+    <row r="25" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="36" t="s">
         <v>527</v>
       </c>
@@ -16175,9 +16178,9 @@
       </c>
       <c r="K25" s="61"/>
     </row>
-    <row r="26" spans="1:11" ht="180">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
+    <row r="26" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="36" t="s">
         <v>528</v>
       </c>
@@ -16204,9 +16207,9 @@
       </c>
       <c r="K26" s="61"/>
     </row>
-    <row r="27" spans="1:11" ht="180">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
+    <row r="27" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="36" t="s">
         <v>529</v>
       </c>
@@ -16233,9 +16236,9 @@
       </c>
       <c r="K27" s="61"/>
     </row>
-    <row r="28" spans="1:11" ht="180">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="36" t="s">
         <v>530</v>
       </c>
@@ -16262,9 +16265,9 @@
       </c>
       <c r="K28" s="61"/>
     </row>
-    <row r="29" spans="1:11" ht="90">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+    <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="36" t="s">
         <v>531</v>
       </c>
@@ -16291,9 +16294,9 @@
       </c>
       <c r="K29" s="61"/>
     </row>
-    <row r="30" spans="1:11" ht="90">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+    <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="36" t="s">
         <v>532</v>
       </c>
@@ -16320,9 +16323,9 @@
       </c>
       <c r="K30" s="61"/>
     </row>
-    <row r="31" spans="1:11" ht="330">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
+    <row r="31" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="36" t="s">
         <v>533</v>
       </c>
@@ -16349,9 +16352,9 @@
       </c>
       <c r="K31" s="61"/>
     </row>
-    <row r="32" spans="1:11" ht="409.5">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="36" t="s">
         <v>534</v>
       </c>
@@ -16378,9 +16381,9 @@
       </c>
       <c r="K32" s="61"/>
     </row>
-    <row r="33" spans="1:11" ht="135">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
+    <row r="33" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="36" t="s">
         <v>535</v>
       </c>
@@ -16407,9 +16410,9 @@
       </c>
       <c r="K33" s="61"/>
     </row>
-    <row r="34" spans="1:11" ht="120">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
+    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="36" t="s">
         <v>536</v>
       </c>
@@ -16436,9 +16439,9 @@
       </c>
       <c r="K34" s="61"/>
     </row>
-    <row r="35" spans="1:11" ht="60">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
+    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="36" t="s">
         <v>537</v>
       </c>
@@ -16465,9 +16468,9 @@
       </c>
       <c r="K35" s="61"/>
     </row>
-    <row r="36" spans="1:11" ht="90">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
+    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="36" t="s">
         <v>538</v>
       </c>
@@ -16494,9 +16497,9 @@
       </c>
       <c r="K36" s="61"/>
     </row>
-    <row r="37" spans="1:11" ht="150">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="36" t="s">
         <v>539</v>
       </c>
@@ -16523,9 +16526,9 @@
       </c>
       <c r="K37" s="61"/>
     </row>
-    <row r="38" spans="1:11" ht="90">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
+    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="36" t="s">
         <v>540</v>
       </c>
@@ -16552,9 +16555,9 @@
       </c>
       <c r="K38" s="61"/>
     </row>
-    <row r="39" spans="1:11" ht="90">
-      <c r="A39" s="110"/>
-      <c r="B39" s="110"/>
+    <row r="39" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="36" t="s">
         <v>541</v>
       </c>
@@ -16598,11 +16601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="33" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="33" customWidth="1"/>
@@ -16618,16 +16621,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -16636,15 +16639,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" thickBot="1">
+    <row r="4" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -16654,7 +16657,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" thickBot="1">
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -16662,7 +16665,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -16670,7 +16673,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -16678,7 +16681,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -16686,8 +16689,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="11" spans="1:11" customFormat="1" ht="18.75" thickBot="1">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
@@ -16722,11 +16725,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="274.5" customHeight="1">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -16755,9 +16758,9 @@
       </c>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="105">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -16784,9 +16787,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="79.5" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -16813,9 +16816,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="75">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -16842,9 +16845,9 @@
       </c>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="165">
-      <c r="A17" s="106"/>
-      <c r="B17" s="109"/>
+    <row r="17" spans="1:11" ht="165" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -16871,9 +16874,9 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="90">
-      <c r="A18" s="106"/>
-      <c r="B18" s="109"/>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -16900,9 +16903,9 @@
       </c>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="180">
-      <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+    <row r="19" spans="1:11" ht="180" x14ac:dyDescent="0.2">
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="37" t="s">
         <v>521</v>
       </c>
@@ -16929,9 +16932,9 @@
       </c>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="1:11" ht="120">
-      <c r="A20" s="106"/>
-      <c r="B20" s="109"/>
+    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="37" t="s">
         <v>522</v>
       </c>
@@ -16958,9 +16961,9 @@
       </c>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="1:11" ht="105">
-      <c r="A21" s="106"/>
-      <c r="B21" s="109"/>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="37" t="s">
         <v>523</v>
       </c>
@@ -16987,9 +16990,9 @@
       </c>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="106"/>
-      <c r="B22" s="109"/>
+    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="108"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="37" t="s">
         <v>524</v>
       </c>
@@ -17016,9 +17019,9 @@
       </c>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="1:11" ht="105">
-      <c r="A23" s="106"/>
-      <c r="B23" s="109"/>
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A23" s="108"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="37" t="s">
         <v>525</v>
       </c>
@@ -17045,9 +17048,9 @@
       </c>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="105">
-      <c r="A24" s="106"/>
-      <c r="B24" s="109"/>
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="37" t="s">
         <v>526</v>
       </c>
@@ -17074,9 +17077,9 @@
       </c>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="1:11" ht="105">
-      <c r="A25" s="106"/>
-      <c r="B25" s="109"/>
+    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A25" s="108"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="37" t="s">
         <v>527</v>
       </c>
@@ -17103,9 +17106,9 @@
       </c>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="1:11" ht="135">
-      <c r="A26" s="106"/>
-      <c r="B26" s="109"/>
+    <row r="26" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="A26" s="108"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="37" t="s">
         <v>528</v>
       </c>
@@ -17132,9 +17135,9 @@
       </c>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="1:11" ht="195">
-      <c r="A27" s="106"/>
-      <c r="B27" s="109"/>
+    <row r="27" spans="1:11" ht="195" x14ac:dyDescent="0.2">
+      <c r="A27" s="108"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="37" t="s">
         <v>529</v>
       </c>
@@ -17161,9 +17164,9 @@
       </c>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="1:11" ht="135">
-      <c r="A28" s="106"/>
-      <c r="B28" s="109"/>
+    <row r="28" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+      <c r="A28" s="108"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="37" t="s">
         <v>530</v>
       </c>
@@ -17190,9 +17193,9 @@
       </c>
       <c r="K28" s="63"/>
     </row>
-    <row r="29" spans="1:11" ht="105">
-      <c r="A29" s="106"/>
-      <c r="B29" s="109"/>
+    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A29" s="108"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="37" t="s">
         <v>531</v>
       </c>
@@ -17219,9 +17222,9 @@
       </c>
       <c r="K29" s="63"/>
     </row>
-    <row r="30" spans="1:11" ht="60">
-      <c r="A30" s="106"/>
-      <c r="B30" s="109"/>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A30" s="108"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="37" t="s">
         <v>532</v>
       </c>
@@ -17248,9 +17251,9 @@
       </c>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:11" ht="60">
-      <c r="A31" s="106"/>
-      <c r="B31" s="109"/>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="108"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="37" t="s">
         <v>533</v>
       </c>
@@ -17277,9 +17280,9 @@
       </c>
       <c r="K31" s="63"/>
     </row>
-    <row r="32" spans="1:11" ht="120">
-      <c r="A32" s="106"/>
-      <c r="B32" s="109"/>
+    <row r="32" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A32" s="108"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="37" t="s">
         <v>534</v>
       </c>
@@ -17306,9 +17309,9 @@
       </c>
       <c r="K32" s="63"/>
     </row>
-    <row r="33" spans="1:11" ht="150">
-      <c r="A33" s="106"/>
-      <c r="B33" s="109"/>
+    <row r="33" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A33" s="108"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="37" t="s">
         <v>535</v>
       </c>
@@ -17335,9 +17338,9 @@
       </c>
       <c r="K33" s="63"/>
     </row>
-    <row r="34" spans="1:11" ht="150">
-      <c r="A34" s="106"/>
-      <c r="B34" s="109"/>
+    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A34" s="108"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="37" t="s">
         <v>536</v>
       </c>
@@ -17364,9 +17367,9 @@
       </c>
       <c r="K34" s="63"/>
     </row>
-    <row r="35" spans="1:11" ht="195" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="109"/>
+    <row r="35" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="108"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="37" t="s">
         <v>537</v>
       </c>
@@ -17393,9 +17396,9 @@
       </c>
       <c r="K35" s="63"/>
     </row>
-    <row r="36" spans="1:11" ht="195" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="109"/>
+    <row r="36" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="108"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="37" t="s">
         <v>538</v>
       </c>
@@ -17422,9 +17425,9 @@
       </c>
       <c r="K36" s="63"/>
     </row>
-    <row r="37" spans="1:11" ht="195" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="109"/>
+    <row r="37" spans="1:11" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="108"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="37" t="s">
         <v>539</v>
       </c>
@@ -17451,9 +17454,9 @@
       </c>
       <c r="K37" s="63"/>
     </row>
-    <row r="38" spans="1:11" ht="105">
-      <c r="A38" s="106"/>
-      <c r="B38" s="109"/>
+    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A38" s="108"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="37" t="s">
         <v>540</v>
       </c>
@@ -17480,9 +17483,9 @@
       </c>
       <c r="K38" s="63"/>
     </row>
-    <row r="39" spans="1:11" ht="120">
-      <c r="A39" s="106"/>
-      <c r="B39" s="109"/>
+    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A39" s="108"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="37" t="s">
         <v>541</v>
       </c>
@@ -17509,9 +17512,9 @@
       </c>
       <c r="K39" s="63"/>
     </row>
-    <row r="40" spans="1:11" ht="105">
-      <c r="A40" s="106"/>
-      <c r="B40" s="109"/>
+    <row r="40" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A40" s="108"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="37" t="s">
         <v>542</v>
       </c>
@@ -17538,9 +17541,9 @@
       </c>
       <c r="K40" s="63"/>
     </row>
-    <row r="41" spans="1:11" ht="120">
-      <c r="A41" s="106"/>
-      <c r="B41" s="109"/>
+    <row r="41" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A41" s="108"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="37" t="s">
         <v>543</v>
       </c>
@@ -17567,9 +17570,9 @@
       </c>
       <c r="K41" s="63"/>
     </row>
-    <row r="42" spans="1:11" ht="75">
-      <c r="A42" s="106"/>
-      <c r="B42" s="109"/>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A42" s="108"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="37" t="s">
         <v>544</v>
       </c>
@@ -17596,9 +17599,9 @@
       </c>
       <c r="K42" s="63"/>
     </row>
-    <row r="43" spans="1:11" ht="75">
-      <c r="A43" s="107"/>
-      <c r="B43" s="110"/>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="A43" s="109"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="37" t="s">
         <v>545</v>
       </c>
@@ -17657,11 +17660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="33" customWidth="1"/>
     <col min="2" max="3" width="34.85546875" style="33" customWidth="1"/>
@@ -17676,16 +17679,16 @@
     <col min="12" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -17694,15 +17697,15 @@
         <v>26</v>
       </c>
       <c r="E3"/>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="49"/>
       <c r="C4" s="79" t="s">
         <v>1</v>
@@ -17712,7 +17715,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="49"/>
       <c r="C5" s="80" t="s">
         <v>2</v>
@@ -17720,7 +17723,7 @@
       <c r="D5" s="52"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" thickBot="1">
+    <row r="6" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="80" t="s">
         <v>3</v>
@@ -17728,7 +17731,7 @@
       <c r="D6" s="52"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" thickBot="1">
+    <row r="7" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49"/>
       <c r="C7" s="78" t="s">
         <v>4</v>
@@ -17736,7 +17739,7 @@
       <c r="D7" s="53"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1">
+    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="80" t="s">
         <v>5</v>
@@ -17744,8 +17747,8 @@
       <c r="D8" s="52"/>
       <c r="E8"/>
     </row>
-    <row r="10" spans="1:11" ht="10.5" customHeight="1" thickBot="1"/>
-    <row r="11" spans="1:11" customFormat="1" ht="18.75" thickBot="1">
+    <row r="10" spans="1:11" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>6</v>
       </c>
@@ -17777,15 +17780,15 @@
         <v>24</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:11" ht="210">
-      <c r="A13" s="105" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" ht="210" x14ac:dyDescent="0.2">
+      <c r="A13" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="107" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -17814,9 +17817,9 @@
       </c>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="1:11" ht="270">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
+    <row r="14" spans="1:11" ht="270" x14ac:dyDescent="0.2">
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="37" t="s">
         <v>516</v>
       </c>
@@ -17843,9 +17846,9 @@
       </c>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="1:11" ht="255">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
+    <row r="15" spans="1:11" ht="255" x14ac:dyDescent="0.2">
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="37" t="s">
         <v>517</v>
       </c>
@@ -17872,9 +17875,9 @@
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:11" ht="105">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="37" t="s">
         <v>518</v>
       </c>
@@ -17901,9 +17904,9 @@
       </c>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="37" t="s">
         <v>519</v>
       </c>
@@ -17930,9 +17933,9 @@
       </c>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="37" t="s">
         <v>520</v>
       </c>
@@ -17959,101 +17962,101 @@
       </c>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:11" ht="15">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:11" ht="12.75"/>
-    <row r="32" spans="1:11" ht="12.75"/>
-    <row r="33" ht="12.75"/>
-    <row r="34" ht="12.75"/>
-    <row r="35" ht="12.75"/>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
-    <row r="49" ht="12.75"/>
-    <row r="50" ht="12.75"/>
-    <row r="51" ht="12.75"/>
-    <row r="52" ht="12.75"/>
-    <row r="53" ht="12.75"/>
-    <row r="54" ht="12.75"/>
-    <row r="55" ht="12.75"/>
-    <row r="56" ht="12.75"/>
-    <row r="57" ht="12.75"/>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
@@ -18090,7 +18093,7 @@
       <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -18105,7 +18108,7 @@
     <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -18119,13 +18122,13 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+    <row r="2" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="105" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -18134,7 +18137,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" ht="21" thickBot="1">
+    <row r="3" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33"/>
       <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
@@ -18143,10 +18146,10 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>1106</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="14" t="s">
         <v>1107</v>
       </c>
@@ -18155,7 +18158,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" thickBot="1">
+    <row r="4" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="49"/>
       <c r="C4" s="3" t="s">
@@ -18172,7 +18175,7 @@
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75" thickBot="1">
+    <row r="5" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
@@ -18187,7 +18190,7 @@
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" thickBot="1">
+    <row r="6" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="49"/>
       <c r="C6" s="5" t="s">
@@ -18202,7 +18205,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" thickBot="1">
+    <row r="7" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="49"/>
       <c r="C7" s="1" t="s">
@@ -18217,7 +18220,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" thickBot="1">
+    <row r="8" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
@@ -18232,7 +18235,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -18246,7 +18249,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" ht="36.75" thickBot="1">
+    <row r="10" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>6</v>
       </c>
@@ -18282,7 +18285,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -18296,11 +18299,11 @@
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:12" ht="208.5" customHeight="1">
-      <c r="A12" s="114" t="s">
+    <row r="12" spans="1:12" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="116" t="s">
         <v>881</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -18330,9 +18333,9 @@
       <c r="K12" s="63"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12" ht="182.25" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
+    <row r="13" spans="1:12" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="81" t="s">
         <v>516</v>
       </c>
@@ -18360,9 +18363,9 @@
       <c r="K13" s="63"/>
       <c r="L13" s="33"/>
     </row>
-    <row r="14" spans="1:12" ht="93.75" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+    <row r="14" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="81" t="s">
         <v>517</v>
       </c>
@@ -18390,9 +18393,9 @@
       <c r="K14" s="63"/>
       <c r="L14" s="33"/>
     </row>
-    <row r="15" spans="1:12" ht="216.75">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114"/>
+    <row r="15" spans="1:12" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="81" t="s">
         <v>518</v>
       </c>
@@ -18420,9 +18423,9 @@
       <c r="K15" s="63"/>
       <c r="L15" s="33"/>
     </row>
-    <row r="16" spans="1:12" ht="216.75">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
+    <row r="16" spans="1:12" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="81" t="s">
         <v>519</v>
       </c>
@@ -18450,9 +18453,9 @@
       <c r="K16" s="63"/>
       <c r="L16" s="33"/>
     </row>
-    <row r="17" spans="1:12" ht="229.5">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
+    <row r="17" spans="1:12" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="81" t="s">
         <v>520</v>
       </c>
@@ -18480,9 +18483,9 @@
       <c r="K17" s="63"/>
       <c r="L17" s="33"/>
     </row>
-    <row r="18" spans="1:12" ht="178.5">
-      <c r="A18" s="114"/>
-      <c r="B18" s="114"/>
+    <row r="18" spans="1:12" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="81" t="s">
         <v>521</v>
       </c>
@@ -18510,9 +18513,9 @@
       <c r="K18" s="63"/>
       <c r="L18" s="33"/>
     </row>
-    <row r="19" spans="1:12" ht="204">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
+    <row r="19" spans="1:12" ht="204" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="81" t="s">
         <v>522</v>
       </c>
@@ -18540,11 +18543,11 @@
       <c r="K19" s="63"/>
       <c r="L19" s="33"/>
     </row>
-    <row r="20" spans="1:12" ht="214.5" customHeight="1">
-      <c r="A20" s="114" t="s">
+    <row r="20" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="116" t="s">
         <v>881</v>
       </c>
       <c r="C20" s="81" t="s">
@@ -18574,9 +18577,9 @@
       <c r="K20" s="63"/>
       <c r="L20" s="33"/>
     </row>
-    <row r="21" spans="1:12" ht="228" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
+    <row r="21" spans="1:12" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="81" t="s">
         <v>524</v>
       </c>
@@ -18603,9 +18606,9 @@
       </c>
       <c r="K21" s="60"/>
     </row>
-    <row r="22" spans="1:12" ht="63.75">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
+    <row r="22" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="81" t="s">
         <v>525</v>
       </c>
@@ -18632,9 +18635,9 @@
       </c>
       <c r="K22" s="60"/>
     </row>
-    <row r="23" spans="1:12" ht="63.75">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
+    <row r="23" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="81" t="s">
         <v>526</v>
       </c>
